--- a/sequences/27_localizer.xlsx
+++ b/sequences/27_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>car</t>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
   </si>
   <si>
     <t>flower/flower008.png</t>
   </si>
   <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
     <t>flower/flower009.png</t>
   </si>
   <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
     <t>flower/flower015.png</t>
   </si>
   <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
     <t>face/face009.png</t>
   </si>
   <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
     <t>face/face006.png</t>
   </si>
   <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
   </si>
   <si>
     <t>flower/flower001.png</t>
   </si>
   <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
     <t>dog/dog013.png</t>
   </si>
   <si>
-    <t>dog/dog007.png</t>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
   </si>
   <si>
     <t>face/face014.png</t>
   </si>
   <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
+    <t>car/car015.png</t>
   </si>
   <si>
     <t>face/face011.png</t>
   </si>
   <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
   </si>
   <si>
     <t>dog/dog029.png</t>
   </si>
   <si>
-    <t>car/car029.png</t>
+    <t>flower/flower020.png</t>
   </si>
   <si>
     <t>face/face020.png</t>
   </si>
   <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
   </si>
   <si>
     <t>dog/dog016.png</t>
   </si>
   <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
     <t>face/face028.png</t>
   </si>
   <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
   </si>
   <si>
     <t>flower/flower030.png</t>
   </si>
   <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
   </si>
   <si>
     <t>flower/flower025.png</t>
   </si>
   <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
+    <t>face/face019.png</t>
   </si>
   <si>
     <t>flower/flower021.png</t>
   </si>
   <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
   </si>
   <si>
     <t>car/car033.png</t>
   </si>
   <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
     <t>flower/flower034.png</t>
   </si>
   <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
     <t>face/face033.png</t>
   </si>
   <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
   </si>
   <si>
     <t>flower/flower044.png</t>
   </si>
   <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
   </si>
   <si>
     <t>car/car035.png</t>
   </si>
   <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
     <t>car/car037.png</t>
   </si>
   <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
   </si>
   <si>
     <t>face/face055.png</t>
   </si>
   <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
   </si>
   <si>
     <t>flower/flower060.png</t>
   </si>
   <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
     <t>flower/flower059.png</t>
   </si>
   <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
     <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.510137816481195</v>
+        <v>1.682201006799685</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.596206396716719</v>
+        <v>1.411134402072995</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.716554565636933</v>
+        <v>1.441304253111697</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.376473650449794</v>
+        <v>1.553372211027028</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.70419605843246</v>
+        <v>1.597742044931405</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.533977569675446</v>
+        <v>1.476146208352038</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.468780870617933</v>
+        <v>1.211917033402513</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.092567622117989</v>
+        <v>1.797820015878199</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.33236466690206</v>
+        <v>1.605626347324682</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.476623212623621</v>
+        <v>1.38114177530871</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.376322750207086</v>
+        <v>1.315587629036757</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.469942772469015</v>
+        <v>1.603084293102471</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.526447255656099</v>
+        <v>1.599749020663793</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.722323012096677</v>
+        <v>1.669684265627108</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.593758957612934</v>
+        <v>1.390037945672583</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.588938901419875</v>
+        <v>1.547951731465174</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.701209871588102</v>
+        <v>1.517584417872596</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.370774317390702</v>
+        <v>1.694721340317389</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.563948055326661</v>
+        <v>1.552134974548273</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.674453629221196</v>
+        <v>1.388884314331204</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.435588690659557</v>
+        <v>1.290681610488219</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.473388684322581</v>
+        <v>1.484106909587046</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.546600316187349</v>
+        <v>1.549364640498822</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.57134672002487</v>
+        <v>1.364784823482046</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.507626379326213</v>
+        <v>1.825335303623694</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.483659728915317</v>
+        <v>1.456235777763684</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.573014605741276</v>
+        <v>1.529895897659626</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.579188398670749</v>
+        <v>1.431476694204447</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.646827038401552</v>
+        <v>1.543552544471037</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.691918943411187</v>
+        <v>1.58681133517779</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.64340981467508</v>
+        <v>1.294201732472757</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.655252165541289</v>
+        <v>1.345607289799135</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.717183061542551</v>
+        <v>1.449419119615659</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.568563057903819</v>
+        <v>1.333909772252031</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.287740870766795</v>
+        <v>1.465383887896126</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.857504125821163</v>
+        <v>1.400888589318079</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.433450715258255</v>
+        <v>1.437001962028414</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.340905273802089</v>
+        <v>1.634438728807322</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.622620573352679</v>
+        <v>1.561518669138241</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.706977752333837</v>
+        <v>1.725671618923895</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.587893074122626</v>
+        <v>1.674097950913559</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.658251527078986</v>
+        <v>1.415165238394072</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.528268618971242</v>
+        <v>1.679467620988865</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.577777195874221</v>
+        <v>1.620557979262616</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.581711764693535</v>
+        <v>1.781279578251318</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.417613646463079</v>
+        <v>1.681301949943588</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.413415594619357</v>
+        <v>1.54268503692319</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.458358197610381</v>
+        <v>1.384846668701719</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.468234384367215</v>
+        <v>1.461817001893899</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.351152254074299</v>
+        <v>1.573723945787171</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.586640245474439</v>
+        <v>1.582232606915746</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.468253560309488</v>
+        <v>1.401043748397442</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.467752458453312</v>
+        <v>1.579631274485139</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.755177305686682</v>
+        <v>1.14709002784931</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.584463957917049</v>
+        <v>1.326447883167743</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.695989587277471</v>
+        <v>1.645094549540888</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.685030518143732</v>
+        <v>1.338972773320184</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.325770630686775</v>
+        <v>1.36924251125822</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.475957771144263</v>
+        <v>1.096845718938321</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.727186264259111</v>
+        <v>1.64681716583004</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.802378685068593</v>
+        <v>1.456638706909579</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.474277581028284</v>
+        <v>1.266441985638431</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.622826401826315</v>
+        <v>1.402708818239095</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.476999801917362</v>
+        <v>1.67434334337899</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.37700509514554</v>
+        <v>1.564756791905242</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.593403112398132</v>
+        <v>1.323084299514687</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.599119126389418</v>
+        <v>1.4196504960571</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.424659965682892</v>
+        <v>1.570056282454343</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.723341761245744</v>
+        <v>1.331913772102334</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.540956132686239</v>
+        <v>1.562098886762225</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.287116499796923</v>
+        <v>1.451393613490932</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.564472504751707</v>
+        <v>1.702928902581152</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.644600271472263</v>
+        <v>1.672409796381525</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.620975868227589</v>
+        <v>1.668956103287665</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.852316012318881</v>
+        <v>1.617520719800052</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.136929154171015</v>
+        <v>1.489224471822625</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.351255735453803</v>
+        <v>1.57492373851121</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.584233549587923</v>
+        <v>1.524909143632571</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.464769470740747</v>
+        <v>1.302295852242265</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.574533988993407</v>
+        <v>1.490034439904902</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.344313066121468</v>
+        <v>1.669847658987138</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.434447352942702</v>
+        <v>1.818594790102852</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.353396361857879</v>
+        <v>1.35841457418911</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.731035387770236</v>
+        <v>1.227611614509223</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.573528539479877</v>
+        <v>1.486307013145512</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>1.537892132905896</v>
+        <v>1.416038315181259</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.663341971840535</v>
+        <v>1.293256400851513</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.467886447377282</v>
+        <v>1.62516242211713</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.774427527814853</v>
+        <v>1.60080948429073</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.604302485747259</v>
+        <v>1.28853224444844</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.553337479558614</v>
+        <v>1.441721537250667</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.420553554232556</v>
+        <v>1.609438286291941</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.367096290679923</v>
+        <v>1.502425898900834</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.335754727747652</v>
+        <v>1.310917180360276</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.685074453841559</v>
+        <v>1.485454956239427</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.350335225745457</v>
+        <v>1.657164781252888</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.563238851076828</v>
+        <v>1.216950979499957</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.57670606617484</v>
+        <v>1.340070377132502</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.275333684213251</v>
+        <v>1.453403943942164</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.739488492392866</v>
+        <v>1.616973711026558</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.521611941878726</v>
+        <v>1.394639526284503</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.634670105587611</v>
+        <v>1.205091174090082</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.309470508781004</v>
+        <v>1.529807182903264</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.845123202355484</v>
+        <v>1.638042182287318</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.654047770064894</v>
+        <v>1.349212192528814</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.537866384549502</v>
+        <v>1.2915056265249</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.584796136759783</v>
+        <v>1.410081709311803</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.620985247536077</v>
+        <v>1.668305119382404</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.475109672467578</v>
+        <v>1.796234087179202</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.429298508672914</v>
+        <v>1.311655304319088</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.509915175433822</v>
+        <v>1.538320376832</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.352826165071907</v>
+        <v>1.285725050109742</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.45008210398152</v>
+        <v>1.618102146556695</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.499678121803455</v>
+        <v>1.517898044503727</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.443598292468601</v>
+        <v>1.20283313815748</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.415378593748633</v>
+        <v>1.509624230912503</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.494138942637164</v>
+        <v>1.380025645705604</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.660974364334336</v>
+        <v>1.351962989138003</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.434348050826271</v>
+        <v>1.411599550408636</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.297282424088758</v>
+        <v>1.237141904869963</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.197951311649965</v>
+        <v>1.516194168290455</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.536289843106313</v>
+        <v>1.520130495716706</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.441930447795845</v>
+        <v>1.117932382746904</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.447814043633266</v>
+        <v>1.316729936556029</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.57166005969464</v>
+        <v>1.494386565840947</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.320024772257211</v>
+        <v>1.635828581196803</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.930953324137204</v>
+        <v>1.423988338589817</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.449916475021737</v>
+        <v>1.529659005913168</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.449125376580518</v>
+        <v>1.31103759996302</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.365247607283446</v>
+        <v>1.52847561305486</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.6335214662476</v>
+        <v>1.494238118839875</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.658393593827198</v>
+        <v>1.372574721107386</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.486317441156691</v>
+        <v>1.478143882872011</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.537903885901976</v>
+        <v>1.494063827774699</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.71267457242465</v>
+        <v>1.475044500274711</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.283790580450475</v>
+        <v>1.579194751489247</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.760072785973101</v>
+        <v>1.630638724200308</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.315795153059963</v>
+        <v>1.419875209964726</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.443157668990135</v>
+        <v>1.35076826443704</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.48367517879492</v>
+        <v>1.403762763100751</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.427127072537086</v>
+        <v>1.51328747180096</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.409190715117858</v>
+        <v>1.425930515426669</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.537815905610644</v>
+        <v>1.521098663467365</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.671955953154922</v>
+        <v>1.438510594554554</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.377395717236093</v>
+        <v>1.405966525631122</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.363689217111388</v>
+        <v>1.318961821979811</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.714813672432941</v>
+        <v>1.614560348788961</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.467994916866751</v>
+        <v>1.444653503235165</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.529142793175401</v>
+        <v>1.569180003272168</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.437708203717268</v>
+        <v>1.80011984754639</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.521145475753166</v>
+        <v>1.435233878452071</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.525065939366812</v>
+        <v>1.525043415162742</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.308572898422146</v>
+        <v>1.40446424816453</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.242971750407464</v>
+        <v>1.631662273416628</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.773200440070128</v>
+        <v>1.350554485745298</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.601512923561398</v>
+        <v>1.4968064162937</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.428057225486485</v>
+        <v>1.624257657568505</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.719575196271856</v>
+        <v>1.491985729613869</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.542208685576005</v>
+        <v>1.462946202760518</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.683386809216566</v>
+        <v>1.482595716816821</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.665486363486929</v>
+        <v>1.350623373222028</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.426556024822883</v>
+        <v>1.623380704222334</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.558088551366227</v>
+        <v>1.795908546235733</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.543710391237991</v>
+        <v>1.598146071370473</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.595425475444902</v>
+        <v>1.549718137737746</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.38832995537493</v>
+        <v>1.413451374448613</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.607277543830433</v>
+        <v>1.196867238030362</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.569669988051573</v>
+        <v>1.415420982792543</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.425110286399992</v>
+        <v>1.187003255217344</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.347592714575611</v>
+        <v>1.578593248329824</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.815280597950789</v>
+        <v>1.414772694984515</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.432411433014412</v>
+        <v>1.330536453028978</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.66956637434693</v>
+        <v>1.339501732617798</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.521900096200179</v>
+        <v>1.669815912010254</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="F176">
-        <v>1.619699829898213</v>
+        <v>1.423578515828689</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.464173702100526</v>
+        <v>1.485147410130109</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.454615200487294</v>
+        <v>1.447877875032593</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F179">
-        <v>1.629694763578503</v>
+        <v>1.832753364612695</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.27728001976754</v>
+        <v>1.475741505501739</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.385631152733855</v>
+        <v>1.377252526779955</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.747217908362913</v>
+        <v>1.418743164871892</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.488363802718438</v>
+        <v>1.408755201564308</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.572608459278195</v>
+        <v>1.503422732616442</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.39315603289147</v>
+        <v>1.373533423054605</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.394708593063011</v>
+        <v>1.872122932428752</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.447812704662033</v>
+        <v>1.701831510500402</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.647183902707056</v>
+        <v>1.574257077316732</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.61766915793097</v>
+        <v>1.304647380501356</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.811040191495353</v>
+        <v>1.634600142135046</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.518740805446935</v>
+        <v>1.423634142852972</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.442240366324776</v>
+        <v>1.559920718164937</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.51787962933011</v>
+        <v>1.370474412366168</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.595998058839552</v>
+        <v>1.389744809888235</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.439701609099534</v>
+        <v>1.280674513118077</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.517303603525348</v>
+        <v>1.52400198611991</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.45357867508221</v>
+        <v>1.741451624250751</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.274883343003978</v>
+        <v>1.347296459278468</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.822116176512104</v>
+        <v>1.223807311509757</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.434656071229745</v>
+        <v>1.497168677536455</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.556527350992691</v>
+        <v>1.325432001538648</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.601896230689846</v>
+        <v>1.422028386135942</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.405612973456664</v>
+        <v>1.662295250111387</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.548311696791289</v>
+        <v>1.466801608423319</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.632398173328018</v>
+        <v>1.596890383093136</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.32333995445251</v>
+        <v>1.796932665321868</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.528731234010513</v>
+        <v>1.353143760260308</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.477993843612674</v>
+        <v>1.534558607759891</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.204383316994178</v>
+        <v>1.532424215890428</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.204628333742968</v>
+        <v>1.627949172000144</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.535468580686555</v>
+        <v>1.876475604339203</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.389745432607767</v>
+        <v>1.301366900391002</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.461994691983628</v>
+        <v>1.442370621186585</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.454765477791435</v>
+        <v>1.562393102169177</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.533888754045394</v>
+        <v>1.284880412202366</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.605315235981958</v>
+        <v>1.26649330648723</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.565563313670734</v>
+        <v>1.225203824132711</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.450039050797098</v>
+        <v>1.444598745927762</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.551384486224377</v>
+        <v>1.566370399005471</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.859996370134761</v>
+        <v>1.492650150067302</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.288315077892553</v>
+        <v>1.280275085674525</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.576182842801821</v>
+        <v>1.390679606422477</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.448744666432398</v>
+        <v>1.412960778675508</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.297928331615233</v>
+        <v>1.467395219066867</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.565084521172341</v>
+        <v>1.600375566686174</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.30726184229733</v>
+        <v>1.558822474399154</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.662589471751758</v>
+        <v>1.611008400089772</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.388905237121754</v>
+        <v>1.290684667908673</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.366526964833984</v>
+        <v>1.546013142384458</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.503039141517591</v>
+        <v>1.939991687258402</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.316928045336905</v>
+        <v>1.264535355031354</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.513690515776029</v>
+        <v>1.555910233082076</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.353906107131417</v>
+        <v>1.572449119841119</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.374238183604152</v>
+        <v>1.455042371567775</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.902303347830775</v>
+        <v>1.364563225472833</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.493933604275085</v>
+        <v>1.698484219344264</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.59990646386307</v>
+        <v>1.69809552401434</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.484918593501606</v>
+        <v>1.586448234115057</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.650389872566967</v>
+        <v>1.473645114613248</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.423052176695385</v>
+        <v>1.401151859567326</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.409575229990809</v>
+        <v>1.329737286527109</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.299303304273761</v>
+        <v>1.503841111110531</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.616305839692613</v>
+        <v>1.544339753795452</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.678727752320895</v>
+        <v>1.427028402846369</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.439470219848932</v>
+        <v>1.442438697059045</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.690205925483704</v>
+        <v>1.358001415878445</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.670992511653092</v>
+        <v>1.416181566382034</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.40933085081393</v>
+        <v>1.336909262427623</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.558776352156988</v>
+        <v>1.357268379008069</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.675073189715369</v>
+        <v>1.591412971922625</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.485592064931924</v>
+        <v>1.59224781069074</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.271632589931773</v>
+        <v>1.337935255440374</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.48116563272423</v>
+        <v>1.595183072073722</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.237609119641093</v>
+        <v>1.678978413790312</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.481250018844226</v>
+        <v>1.410942218864914</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.368591182079974</v>
+        <v>1.700995947288851</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.442567178971216</v>
+        <v>1.541378193226503</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/27_localizer.xlsx
+++ b/sequences/27_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>face</t>
   </si>
   <si>
-    <t>car</t>
+    <t>dog</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
+    <t>house</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.682201006799685</v>
+        <v>1.516534171529927</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.411134402072995</v>
+        <v>1.262233078681461</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.441304253111697</v>
+        <v>1.702163540947199</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.553372211027028</v>
+        <v>1.361894465743634</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.597742044931405</v>
+        <v>1.369750322672941</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.476146208352038</v>
+        <v>1.604982277351074</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.211917033402513</v>
+        <v>1.598034958460707</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.797820015878199</v>
+        <v>1.202859635431904</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.605626347324682</v>
+        <v>1.51150155005583</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1.38114177530871</v>
+        <v>1.535932994330473</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.315587629036757</v>
+        <v>1.608054569130127</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.603084293102471</v>
+        <v>1.737463170745001</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.599749020663793</v>
+        <v>1.763684625582728</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.669684265627108</v>
+        <v>1.28334250918394</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.390037945672583</v>
+        <v>1.568032224826687</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.547951731465174</v>
+        <v>1.388833226798546</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.517584417872596</v>
+        <v>1.624730780242536</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.694721340317389</v>
+        <v>1.563225148559482</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.552134974548273</v>
+        <v>1.407846632021545</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.388884314331204</v>
+        <v>1.846502495228243</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.290681610488219</v>
+        <v>1.57255848843473</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.484106909587046</v>
+        <v>1.512935660568518</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.549364640498822</v>
+        <v>1.410123205223246</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.364784823482046</v>
+        <v>1.660907762823623</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.825335303623694</v>
+        <v>1.487520869249555</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.456235777763684</v>
+        <v>1.558762079479927</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.529895897659626</v>
+        <v>1.556508757636382</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.431476694204447</v>
+        <v>1.348695288694566</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.543552544471037</v>
+        <v>1.52863418186575</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.58681133517779</v>
+        <v>1.746815321276779</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.294201732472757</v>
+        <v>1.572993161267229</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.345607289799135</v>
+        <v>1.43777324145526</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.449419119615659</v>
+        <v>1.431613240071947</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.333909772252031</v>
+        <v>1.470247257929992</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.465383887896126</v>
+        <v>1.316398472575221</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.400888589318079</v>
+        <v>1.462813219865341</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.437001962028414</v>
+        <v>1.274524936814447</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.634438728807322</v>
+        <v>1.463692626806454</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.561518669138241</v>
+        <v>1.428024165294305</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.725671618923895</v>
+        <v>1.453080835331735</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.674097950913559</v>
+        <v>1.620707723157829</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.415165238394072</v>
+        <v>1.448562813589442</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.679467620988865</v>
+        <v>1.565203374713831</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.620557979262616</v>
+        <v>1.401360470702702</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.781279578251318</v>
+        <v>1.566310356823593</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.681301949943588</v>
+        <v>1.249301716245612</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.54268503692319</v>
+        <v>1.179275819294397</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.384846668701719</v>
+        <v>1.535296040773539</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.461817001893899</v>
+        <v>1.227317129244149</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.573723945787171</v>
+        <v>1.765735753062157</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.582232606915746</v>
+        <v>1.567020191460359</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.401043748397442</v>
+        <v>1.659489374468128</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.579631274485139</v>
+        <v>1.568122743680376</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.14709002784931</v>
+        <v>1.558353451689532</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.326447883167743</v>
+        <v>1.422485631374812</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.645094549540888</v>
+        <v>1.612659481575489</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.338972773320184</v>
+        <v>1.629977460308683</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.36924251125822</v>
+        <v>1.767422748993342</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.096845718938321</v>
+        <v>1.558553136554721</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.64681716583004</v>
+        <v>1.494495534883065</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.456638706909579</v>
+        <v>1.426485684249977</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.266441985638431</v>
+        <v>1.638024774741322</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.402708818239095</v>
+        <v>1.394808925181747</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.67434334337899</v>
+        <v>1.453921603781295</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.564756791905242</v>
+        <v>1.708074318641723</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.323084299514687</v>
+        <v>1.275894508635932</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.4196504960571</v>
+        <v>1.597119319083961</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.570056282454343</v>
+        <v>1.560101675062911</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.331913772102334</v>
+        <v>1.494073422805728</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.562098886762225</v>
+        <v>1.644772911544097</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.451393613490932</v>
+        <v>1.147153258385381</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.702928902581152</v>
+        <v>1.54245131249493</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.672409796381525</v>
+        <v>1.624551460124365</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.668956103287665</v>
+        <v>1.665144733790377</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.617520719800052</v>
+        <v>1.451363675919096</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.489224471822625</v>
+        <v>1.469460993442562</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.57492373851121</v>
+        <v>1.677077278228546</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.524909143632571</v>
+        <v>1.353749486538148</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.302295852242265</v>
+        <v>1.336266201066435</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.490034439904902</v>
+        <v>1.302888914075363</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.669847658987138</v>
+        <v>1.664523243516472</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.818594790102852</v>
+        <v>1.529595708637495</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.35841457418911</v>
+        <v>1.375956958840638</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.227611614509223</v>
+        <v>1.588196287129374</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.486307013145512</v>
+        <v>1.380735981529629</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.416038315181259</v>
+        <v>1.226754817433621</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.293256400851513</v>
+        <v>1.391418402437466</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.62516242211713</v>
+        <v>1.460488928545953</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.60080948429073</v>
+        <v>1.922908543558161</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.28853224444844</v>
+        <v>1.817070801014951</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.441721537250667</v>
+        <v>1.361701657752719</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.609438286291941</v>
+        <v>1.468757915458151</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.502425898900834</v>
+        <v>1.441977228698621</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.310917180360276</v>
+        <v>1.795859801171307</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.485454956239427</v>
+        <v>1.647839784989121</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.657164781252888</v>
+        <v>1.618045600229125</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.216950979499957</v>
+        <v>1.213418632542909</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.340070377132502</v>
+        <v>1.791664357654143</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.453403943942164</v>
+        <v>1.436934347518583</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.616973711026558</v>
+        <v>1.997879540907764</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.394639526284503</v>
+        <v>1.336443255924512</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.205091174090082</v>
+        <v>1.618070757118395</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.529807182903264</v>
+        <v>1.478740326851143</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.638042182287318</v>
+        <v>1.34101813920196</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.349212192528814</v>
+        <v>1.485962152004015</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.2915056265249</v>
+        <v>1.508303029901412</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.410081709311803</v>
+        <v>1.535064655177522</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.668305119382404</v>
+        <v>1.326190239729877</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.796234087179202</v>
+        <v>1.40738392848112</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.311655304319088</v>
+        <v>1.408983020746742</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.538320376832</v>
+        <v>1.612257251426082</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.285725050109742</v>
+        <v>1.60046946458692</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.618102146556695</v>
+        <v>1.425561690553044</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.517898044503727</v>
+        <v>1.229734329026833</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.20283313815748</v>
+        <v>1.656606307907162</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.509624230912503</v>
+        <v>1.593668646899029</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.380025645705604</v>
+        <v>1.405779490274529</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.351962989138003</v>
+        <v>1.540338993445227</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>1.411599550408636</v>
+        <v>1.558610374235872</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.237141904869963</v>
+        <v>1.517923878349739</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.516194168290455</v>
+        <v>1.41111530540522</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.520130495716706</v>
+        <v>1.451278443434314</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.117932382746904</v>
+        <v>1.539693441673726</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.316729936556029</v>
+        <v>1.360418824242449</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.494386565840947</v>
+        <v>1.331724335673388</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.635828581196803</v>
+        <v>1.509782523939215</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.423988338589817</v>
+        <v>1.351327765874507</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.529659005913168</v>
+        <v>1.529219663990436</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.31103759996302</v>
+        <v>1.300264397087809</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.52847561305486</v>
+        <v>1.54669747081305</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.494238118839875</v>
+        <v>1.285060654931407</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.372574721107386</v>
+        <v>1.613474883822553</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.478143882872011</v>
+        <v>1.468522311894152</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.494063827774699</v>
+        <v>1.573703299101897</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.475044500274711</v>
+        <v>1.350763492082128</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.579194751489247</v>
+        <v>1.427922147013113</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.630638724200308</v>
+        <v>1.270112620229258</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.419875209964726</v>
+        <v>1.448313496014759</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.35076826443704</v>
+        <v>1.360401371959918</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.403762763100751</v>
+        <v>1.494542588481334</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.51328747180096</v>
+        <v>1.717548742571006</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.425930515426669</v>
+        <v>1.431193208826727</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.521098663467365</v>
+        <v>1.466862894868109</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.438510594554554</v>
+        <v>1.540523702899211</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.405966525631122</v>
+        <v>1.592222330478466</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.318961821979811</v>
+        <v>1.555235008912812</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.614560348788961</v>
+        <v>1.337008104549864</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.444653503235165</v>
+        <v>1.575501769878027</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.569180003272168</v>
+        <v>1.529903947961569</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.80011984754639</v>
+        <v>1.597862816914614</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.435233878452071</v>
+        <v>1.587861330568712</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.525043415162742</v>
+        <v>1.523462160180043</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.40446424816453</v>
+        <v>1.471805315684998</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.631662273416628</v>
+        <v>1.739885338578537</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.350554485745298</v>
+        <v>1.464475528005484</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.4968064162937</v>
+        <v>1.534981151893516</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.624257657568505</v>
+        <v>1.365814246587396</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.491985729613869</v>
+        <v>1.601482545591561</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.462946202760518</v>
+        <v>1.601589913923356</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.482595716816821</v>
+        <v>1.563732744325411</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.350623373222028</v>
+        <v>1.402722050659271</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.623380704222334</v>
+        <v>1.585985317857658</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.795908546235733</v>
+        <v>1.544162475522616</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.598146071370473</v>
+        <v>1.650740336277517</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.549718137737746</v>
+        <v>1.681224033229903</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.413451374448613</v>
+        <v>1.221393085517387</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.196867238030362</v>
+        <v>1.367585761290411</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.415420982792543</v>
+        <v>1.769940827900766</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.187003255217344</v>
+        <v>1.411220155427661</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.578593248329824</v>
+        <v>1.318533259597031</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.414772694984515</v>
+        <v>1.478480513881817</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.330536453028978</v>
+        <v>1.531591948610007</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.339501732617798</v>
+        <v>1.51894071644228</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.669815912010254</v>
+        <v>1.608218049507177</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.423578515828689</v>
+        <v>1.285449243765268</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.485147410130109</v>
+        <v>1.665332391556039</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.447877875032593</v>
+        <v>1.627038395247783</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F179">
-        <v>1.832753364612695</v>
+        <v>1.561651120367914</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.475741505501739</v>
+        <v>1.288842364396648</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.377252526779955</v>
+        <v>1.733299345528414</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.418743164871892</v>
+        <v>1.53455458313527</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.408755201564308</v>
+        <v>1.614085861169167</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.503422732616442</v>
+        <v>1.551378178999489</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.373533423054605</v>
+        <v>1.567207183115155</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.872122932428752</v>
+        <v>1.743488525606129</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.701831510500402</v>
+        <v>1.721779646175703</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.574257077316732</v>
+        <v>1.608105941510042</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.304647380501356</v>
+        <v>1.470091448854323</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.634600142135046</v>
+        <v>1.564610297190826</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.423634142852972</v>
+        <v>1.480808359708952</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.559920718164937</v>
+        <v>1.456696491806756</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.370474412366168</v>
+        <v>1.35062245718597</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.389744809888235</v>
+        <v>1.420225734190744</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.280674513118077</v>
+        <v>1.664184249747884</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.52400198611991</v>
+        <v>1.442053301244292</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.741451624250751</v>
+        <v>1.467636794742092</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.347296459278468</v>
+        <v>1.605367245128385</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.223807311509757</v>
+        <v>1.444547421704816</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.497168677536455</v>
+        <v>1.594099033740632</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.325432001538648</v>
+        <v>1.571827880266115</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.422028386135942</v>
+        <v>1.379806125883379</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.662295250111387</v>
+        <v>1.373551816886278</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.466801608423319</v>
+        <v>1.578164262379588</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.596890383093136</v>
+        <v>1.483239121056604</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.796932665321868</v>
+        <v>1.628037525997672</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.353143760260308</v>
+        <v>1.296320879420477</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.534558607759891</v>
+        <v>1.406424431126736</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.532424215890428</v>
+        <v>1.564997328248109</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.627949172000144</v>
+        <v>1.317977884631582</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.876475604339203</v>
+        <v>1.610337753034703</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.301366900391002</v>
+        <v>1.776406056565491</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.442370621186585</v>
+        <v>1.602643916390164</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.562393102169177</v>
+        <v>1.685802686562238</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.284880412202366</v>
+        <v>1.526766885091877</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.26649330648723</v>
+        <v>1.60987495310457</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.225203824132711</v>
+        <v>1.574961940448424</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.444598745927762</v>
+        <v>1.778356866175928</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.566370399005471</v>
+        <v>1.483608774463758</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.492650150067302</v>
+        <v>1.316955503192658</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.280275085674525</v>
+        <v>1.748558477604911</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.390679606422477</v>
+        <v>1.322313508910874</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.412960778675508</v>
+        <v>1.189309429499187</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.467395219066867</v>
+        <v>1.246323748659942</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.600375566686174</v>
+        <v>1.467005418024034</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.558822474399154</v>
+        <v>1.326672519927488</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.611008400089772</v>
+        <v>1.902054723500626</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.290684667908673</v>
+        <v>1.447646702851861</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.546013142384458</v>
+        <v>1.480554002128386</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.939991687258402</v>
+        <v>1.607988005263712</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.264535355031354</v>
+        <v>1.623873863105699</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.555910233082076</v>
+        <v>1.350151549303233</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.572449119841119</v>
+        <v>1.271989898911512</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.455042371567775</v>
+        <v>1.598969695571938</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.364563225472833</v>
+        <v>1.463674822499299</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.698484219344264</v>
+        <v>1.447582439000362</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.69809552401434</v>
+        <v>1.361680636800188</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.586448234115057</v>
+        <v>1.429953285991823</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.473645114613248</v>
+        <v>1.51690672262572</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.401151859567326</v>
+        <v>1.879352884173034</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.329737286527109</v>
+        <v>1.567553461846909</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.503841111110531</v>
+        <v>1.599165118218176</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.544339753795452</v>
+        <v>1.562168999886265</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.427028402846369</v>
+        <v>1.473222012595765</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.442438697059045</v>
+        <v>1.577113438570589</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.358001415878445</v>
+        <v>1.431184735856738</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.416181566382034</v>
+        <v>1.445658199566967</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.336909262427623</v>
+        <v>1.196651539968641</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.357268379008069</v>
+        <v>1.590159322661542</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.591412971922625</v>
+        <v>1.479876349124974</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.59224781069074</v>
+        <v>1.469319285225016</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.337935255440374</v>
+        <v>1.453889855767724</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.595183072073722</v>
+        <v>1.656843490016694</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.678978413790312</v>
+        <v>1.483078099001962</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.410942218864914</v>
+        <v>1.803028263944392</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.700995947288851</v>
+        <v>1.50565443655046</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.541378193226503</v>
+        <v>1.502384350534444</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/27_localizer.xlsx
+++ b/sequences/27_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>house</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>house</t>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
   </si>
   <si>
     <t>face/face041.jpg</t>
   </si>
   <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
   </si>
   <si>
     <t>dog/dog032.jpg</t>
   </si>
   <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
   </si>
   <si>
     <t>flower/flower037.jpg</t>
   </si>
   <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
+    <t>flower/flower044.jpg</t>
   </si>
   <si>
     <t>face/face047.jpg</t>
   </si>
   <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
   </si>
   <si>
     <t>house/house057.jpg</t>
   </si>
   <si>
-    <t>flower/flower060.jpg</t>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
   </si>
   <si>
     <t>house/house058.jpg</t>
   </si>
   <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
   </si>
   <si>
     <t>flower/flower048.jpg</t>
   </si>
   <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
   </si>
   <si>
     <t>face/face065.jpg</t>
   </si>
   <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
     <t>house/house076.jpg</t>
   </si>
   <si>
-    <t>house/house069.jpg</t>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
   </si>
   <si>
     <t>house/house070.jpg</t>
   </si>
   <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
     <t>dog/dog067.jpg</t>
   </si>
   <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
   </si>
   <si>
     <t>flower/flower066.jpg</t>
   </si>
   <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
   </si>
   <si>
     <t>house/house067.jpg</t>
   </si>
   <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
   </si>
   <si>
     <t>house/house095.jpg</t>
   </si>
   <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
   </si>
   <si>
     <t>house/house080.jpg</t>
   </si>
   <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
     <t>dog/dog083.jpg</t>
   </si>
   <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
     <t>dog/dog080.jpg</t>
   </si>
   <si>
     <t>house/house094.jpg</t>
   </si>
   <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
   </si>
   <si>
     <t>face/face090.jpg</t>
   </si>
   <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
   </si>
   <si>
     <t>flower/flower093.jpg</t>
   </si>
   <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
     <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.516534171529927</v>
+        <v>1.490750067120018</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.262233078681461</v>
+        <v>1.46789409631336</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.702163540947199</v>
+        <v>1.473494403471352</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.361894465743634</v>
+        <v>1.470425921228266</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.369750322672941</v>
+        <v>1.754633689168656</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.604982277351074</v>
+        <v>1.579447369608079</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.598034958460707</v>
+        <v>1.040491009759234</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.202859635431904</v>
+        <v>1.76700846273308</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.51150155005583</v>
+        <v>1.518515962063648</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.535932994330473</v>
+        <v>1.34665361404877</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1.608054569130127</v>
+        <v>1.673395302781559</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.737463170745001</v>
+        <v>1.558961666050469</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.763684625582728</v>
+        <v>1.443195078967997</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.28334250918394</v>
+        <v>1.390928786415062</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.568032224826687</v>
+        <v>1.768107015298196</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.388833226798546</v>
+        <v>1.705595024420476</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.624730780242536</v>
+        <v>1.429731224192306</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.563225148559482</v>
+        <v>1.487649818019865</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.407846632021545</v>
+        <v>1.516275404277596</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.846502495228243</v>
+        <v>1.390697663047474</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.57255848843473</v>
+        <v>1.329900713206512</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.512935660568518</v>
+        <v>1.556194356628695</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.410123205223246</v>
+        <v>1.584275722825419</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.660907762823623</v>
+        <v>1.447045483335605</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.487520869249555</v>
+        <v>1.660904236530852</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.558762079479927</v>
+        <v>1.512891703592933</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.556508757636382</v>
+        <v>1.510764054217974</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.348695288694566</v>
+        <v>1.419131235687713</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.52863418186575</v>
+        <v>1.650715033580016</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.746815321276779</v>
+        <v>1.536898352167458</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.572993161267229</v>
+        <v>1.571858043269419</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.43777324145526</v>
+        <v>1.677169507214392</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.431613240071947</v>
+        <v>1.537835009461449</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.470247257929992</v>
+        <v>1.673879809686535</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.316398472575221</v>
+        <v>1.443803456970807</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.462813219865341</v>
+        <v>1.6063563569324</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.274524936814447</v>
+        <v>1.475547172958789</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.463692626806454</v>
+        <v>1.624207264538598</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.428024165294305</v>
+        <v>1.310686971992584</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.453080835331735</v>
+        <v>1.337049961708775</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.620707723157829</v>
+        <v>1.732615203315228</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.448562813589442</v>
+        <v>1.63288574185419</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.565203374713831</v>
+        <v>1.339270344637194</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.401360470702702</v>
+        <v>1.850135330575077</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.566310356823593</v>
+        <v>1.614843926434187</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.249301716245612</v>
+        <v>1.625633567188336</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.179275819294397</v>
+        <v>1.678134493921998</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.535296040773539</v>
+        <v>1.504994274404617</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.227317129244149</v>
+        <v>1.073046510466637</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.765735753062157</v>
+        <v>1.668990985890842</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.567020191460359</v>
+        <v>1.64318776458136</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.659489374468128</v>
+        <v>1.795135893395502</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.568122743680376</v>
+        <v>1.595136128197812</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.558353451689532</v>
+        <v>1.386156225905224</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.422485631374812</v>
+        <v>1.555821133088983</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.612659481575489</v>
+        <v>1.572952870419245</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.629977460308683</v>
+        <v>1.439820838488208</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.767422748993342</v>
+        <v>1.438082068783001</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.558553136554721</v>
+        <v>1.305946933812212</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.494495534883065</v>
+        <v>1.464438754933795</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.426485684249977</v>
+        <v>1.497185377974534</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.638024774741322</v>
+        <v>1.638430073556972</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.394808925181747</v>
+        <v>1.407283103440833</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.453921603781295</v>
+        <v>1.630102561239575</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.708074318641723</v>
+        <v>1.350201510685012</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.275894508635932</v>
+        <v>1.455449120373531</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.597119319083961</v>
+        <v>1.346544979354028</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.560101675062911</v>
+        <v>1.594746089110585</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.494073422805728</v>
+        <v>1.526249714013058</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.644772911544097</v>
+        <v>1.551238204546628</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.147153258385381</v>
+        <v>1.412263400305279</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.54245131249493</v>
+        <v>1.571880760397892</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.624551460124365</v>
+        <v>1.583458008436723</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.665144733790377</v>
+        <v>1.303191046427452</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.451363675919096</v>
+        <v>1.491774446522705</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.469460993442562</v>
+        <v>1.501362252302217</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.677077278228546</v>
+        <v>1.32830346918088</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.353749486538148</v>
+        <v>1.480950643858102</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.336266201066435</v>
+        <v>1.689577268194556</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.302888914075363</v>
+        <v>1.210874400364558</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.664523243516472</v>
+        <v>1.447100735461941</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.529595708637495</v>
+        <v>1.702407169923617</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.375956958840638</v>
+        <v>1.327433981388619</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.588196287129374</v>
+        <v>1.814716647370605</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.380735981529629</v>
+        <v>1.323615596412275</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.226754817433621</v>
+        <v>1.365945475858988</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.391418402437466</v>
+        <v>1.533555933905637</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.460488928545953</v>
+        <v>1.40259214078459</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.922908543558161</v>
+        <v>1.402060915739327</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.817070801014951</v>
+        <v>1.455510978583684</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.361701657752719</v>
+        <v>1.350336530164155</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.468757915458151</v>
+        <v>1.377011840802005</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.441977228698621</v>
+        <v>1.411533701351698</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.795859801171307</v>
+        <v>1.209232148064377</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.647839784989121</v>
+        <v>1.554788591864285</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.618045600229125</v>
+        <v>1.351152063122337</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.213418632542909</v>
+        <v>1.745307184924674</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.791664357654143</v>
+        <v>1.697556986230204</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.436934347518583</v>
+        <v>1.37015163133933</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.997879540907764</v>
+        <v>1.508994911273531</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.336443255924512</v>
+        <v>1.628338283229739</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.618070757118395</v>
+        <v>1.414030235686387</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.478740326851143</v>
+        <v>1.549033692292164</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.34101813920196</v>
+        <v>1.430942540691313</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.485962152004015</v>
+        <v>1.672426370053892</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.508303029901412</v>
+        <v>1.384688321930065</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.535064655177522</v>
+        <v>1.290379945166399</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.326190239729877</v>
+        <v>1.488219468974101</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.40738392848112</v>
+        <v>1.463115476281858</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.408983020746742</v>
+        <v>1.793833014276148</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.612257251426082</v>
+        <v>1.39941432033696</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.60046946458692</v>
+        <v>1.476326507647179</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.425561690553044</v>
+        <v>1.437928695165455</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.229734329026833</v>
+        <v>1.314689403057145</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.656606307907162</v>
+        <v>1.467142807032215</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.593668646899029</v>
+        <v>1.524066698286586</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.405779490274529</v>
+        <v>1.51289355768246</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.540338993445227</v>
+        <v>1.605251774024004</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.558610374235872</v>
+        <v>1.611668943816756</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.517923878349739</v>
+        <v>1.628770242625492</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.41111530540522</v>
+        <v>1.536739985288023</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.451278443434314</v>
+        <v>1.618119259051566</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.539693441673726</v>
+        <v>1.543465168769859</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.360418824242449</v>
+        <v>1.46090468428494</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.331724335673388</v>
+        <v>1.448677834414389</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.509782523939215</v>
+        <v>1.621872955482113</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.351327765874507</v>
+        <v>1.685602850444109</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.529219663990436</v>
+        <v>1.527797276722127</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.300264397087809</v>
+        <v>1.750585412718724</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.54669747081305</v>
+        <v>1.691264361661736</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.285060654931407</v>
+        <v>1.403536895876693</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.613474883822553</v>
+        <v>1.479975855461735</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.468522311894152</v>
+        <v>1.509806035690394</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.573703299101897</v>
+        <v>1.500239131525661</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.350763492082128</v>
+        <v>1.585475703693581</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.427922147013113</v>
+        <v>1.578976320718397</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.270112620229258</v>
+        <v>1.611564935108879</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.448313496014759</v>
+        <v>1.402256303685794</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.360401371959918</v>
+        <v>1.651130728663998</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.494542588481334</v>
+        <v>1.59420158404429</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.717548742571006</v>
+        <v>1.338343585355853</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.431193208826727</v>
+        <v>1.527486494644337</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.466862894868109</v>
+        <v>1.497440455424992</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.540523702899211</v>
+        <v>1.442254586550773</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.592222330478466</v>
+        <v>1.519717436725713</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.555235008912812</v>
+        <v>1.435003858429089</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.337008104549864</v>
+        <v>1.693654478162202</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.575501769878027</v>
+        <v>1.638089308970578</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.529903947961569</v>
+        <v>1.467176865598423</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.597862816914614</v>
+        <v>1.404248660007324</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.587861330568712</v>
+        <v>1.353504453341414</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.523462160180043</v>
+        <v>1.676428867877936</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.471805315684998</v>
+        <v>1.408644635089992</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.739885338578537</v>
+        <v>1.357944416306565</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.464475528005484</v>
+        <v>1.300704182445592</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.534981151893516</v>
+        <v>1.539424880851377</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.365814246587396</v>
+        <v>1.546575858627713</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.601482545591561</v>
+        <v>1.575788085322179</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.601589913923356</v>
+        <v>1.772299673527576</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.563732744325411</v>
+        <v>1.542856742717069</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.402722050659271</v>
+        <v>1.555314241529529</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.585985317857658</v>
+        <v>1.53143498756873</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.544162475522616</v>
+        <v>1.565363849704686</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.650740336277517</v>
+        <v>1.49824837437867</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.681224033229903</v>
+        <v>1.649938122361506</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.221393085517387</v>
+        <v>1.520514186371717</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.367585761290411</v>
+        <v>1.398741228195941</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.769940827900766</v>
+        <v>1.644915421257389</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.411220155427661</v>
+        <v>1.252965357033903</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.318533259597031</v>
+        <v>1.386413337646779</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.478480513881817</v>
+        <v>1.571305333253844</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.531591948610007</v>
+        <v>1.708623150299044</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.51894071644228</v>
+        <v>1.464342327266775</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.608218049507177</v>
+        <v>1.35695022681806</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.285449243765268</v>
+        <v>1.65481427735476</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.665332391556039</v>
+        <v>1.503907156525133</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.627038395247783</v>
+        <v>1.687484630314069</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.561651120367914</v>
+        <v>1.717038837900077</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.288842364396648</v>
+        <v>1.580564196792222</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.733299345528414</v>
+        <v>1.783669330406831</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.53455458313527</v>
+        <v>1.585987516314462</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.614085861169167</v>
+        <v>1.489734400157257</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.551378178999489</v>
+        <v>1.490190002185359</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.567207183115155</v>
+        <v>1.463224410982165</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.743488525606129</v>
+        <v>1.492738115798519</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.721779646175703</v>
+        <v>1.722071087564059</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.608105941510042</v>
+        <v>1.617432203517223</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.470091448854323</v>
+        <v>1.626433990839008</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.564610297190826</v>
+        <v>1.477671613596375</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.480808359708952</v>
+        <v>1.588104462730557</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.456696491806756</v>
+        <v>1.531733723892394</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.35062245718597</v>
+        <v>1.34398084304072</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.420225734190744</v>
+        <v>1.725355539546964</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.664184249747884</v>
+        <v>1.361000881287516</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.442053301244292</v>
+        <v>1.31904693370312</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.467636794742092</v>
+        <v>1.481960361403169</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.605367245128385</v>
+        <v>1.842003211495618</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.444547421704816</v>
+        <v>1.339924601662813</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.594099033740632</v>
+        <v>1.617744936734954</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.571827880266115</v>
+        <v>1.543856132680091</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.379806125883379</v>
+        <v>1.660619252225098</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.373551816886278</v>
+        <v>1.220043292440416</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.578164262379588</v>
+        <v>1.280029078276826</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.483239121056604</v>
+        <v>1.579229695051542</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.628037525997672</v>
+        <v>1.25045382606178</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.296320879420477</v>
+        <v>1.546276602915382</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.406424431126736</v>
+        <v>1.301678394461862</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.564997328248109</v>
+        <v>1.309106855014962</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.317977884631582</v>
+        <v>1.446082456344326</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.610337753034703</v>
+        <v>1.649405088840227</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.776406056565491</v>
+        <v>1.298497450667707</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.602643916390164</v>
+        <v>1.53651372503008</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.685802686562238</v>
+        <v>1.45235094376778</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.526766885091877</v>
+        <v>1.493602693866851</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.60987495310457</v>
+        <v>1.62774218307003</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.574961940448424</v>
+        <v>1.611657411411499</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.778356866175928</v>
+        <v>1.449405240136351</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.483608774463758</v>
+        <v>1.770227529565248</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.316955503192658</v>
+        <v>1.636295688889779</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.748558477604911</v>
+        <v>1.514604649412405</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.322313508910874</v>
+        <v>1.449528414332601</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.189309429499187</v>
+        <v>1.698672860284414</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.246323748659942</v>
+        <v>1.675422212257387</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.467005418024034</v>
+        <v>1.452963099195568</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.326672519927488</v>
+        <v>1.693837432516097</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.902054723500626</v>
+        <v>1.329041692047783</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.447646702851861</v>
+        <v>1.246833209013983</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.480554002128386</v>
+        <v>1.43927501341723</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.607988005263712</v>
+        <v>1.533388947261045</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.623873863105699</v>
+        <v>1.323397478303125</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.350151549303233</v>
+        <v>1.314938075603377</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.271989898911512</v>
+        <v>1.743872646103703</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.598969695571938</v>
+        <v>1.64969779407081</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F235">
-        <v>1.463674822499299</v>
+        <v>1.684934995129083</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.447582439000362</v>
+        <v>1.588200792481942</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.361680636800188</v>
+        <v>1.426136756437172</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.429953285991823</v>
+        <v>1.354419507591262</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.51690672262572</v>
+        <v>1.32402962617572</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.879352884173034</v>
+        <v>1.424320772618306</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.567553461846909</v>
+        <v>1.584016239378472</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.599165118218176</v>
+        <v>1.585135556179339</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.562168999886265</v>
+        <v>1.374480024566002</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.473222012595765</v>
+        <v>1.608961405924308</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.577113438570589</v>
+        <v>1.650231042345553</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.431184735856738</v>
+        <v>1.258754450990764</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.445658199566967</v>
+        <v>1.406512879092567</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.196651539968641</v>
+        <v>1.497574984441673</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.590159322661542</v>
+        <v>1.534285660178075</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.479876349124974</v>
+        <v>1.630388349089311</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.469319285225016</v>
+        <v>1.62109222029853</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.453889855767724</v>
+        <v>1.466955997314036</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.656843490016694</v>
+        <v>1.73031532277973</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.483078099001962</v>
+        <v>1.425977597031126</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.803028263944392</v>
+        <v>1.506172289730231</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.50565443655046</v>
+        <v>1.43402457859638</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.502384350534444</v>
+        <v>1.446703769752265</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/27_localizer.xlsx
+++ b/sequences/27_localizer.xlsx
@@ -31,208 +31,208 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
   </si>
   <si>
     <t>dog/dog042.jpg</t>
   </si>
   <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
     <t>face/face039.jpg</t>
   </si>
   <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
     <t>face/face038.jpg</t>
   </si>
   <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
   </si>
   <si>
     <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
   </si>
   <si>
     <t>face/face060.jpg</t>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.490750067120018</v>
+        <v>1.226429883476751</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.46789409631336</v>
+        <v>1.224363540988063</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.473494403471352</v>
+        <v>1.683410337003965</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.470425921228266</v>
+        <v>1.333361174158133</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.754633689168656</v>
+        <v>1.732688185971383</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.579447369608079</v>
+        <v>1.516306981381986</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.040491009759234</v>
+        <v>1.583132389372231</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.76700846273308</v>
+        <v>1.522512755234016</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.518515962063648</v>
+        <v>1.565614261494317</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.34665361404877</v>
+        <v>1.426958979260164</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.673395302781559</v>
+        <v>1.323891307701768</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.558961666050469</v>
+        <v>1.617309497132933</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.443195078967997</v>
+        <v>1.706215784111508</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.390928786415062</v>
+        <v>1.480107924079321</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.768107015298196</v>
+        <v>1.508788813493397</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.705595024420476</v>
+        <v>1.56656283783855</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.429731224192306</v>
+        <v>1.561239987184818</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.487649818019865</v>
+        <v>1.337738549991945</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.516275404277596</v>
+        <v>1.397725363280013</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.390697663047474</v>
+        <v>1.59407315439145</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.329900713206512</v>
+        <v>1.386072276775993</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.556194356628695</v>
+        <v>1.736207689660407</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.584275722825419</v>
+        <v>1.367543925754982</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.447045483335605</v>
+        <v>1.586842740722568</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.660904236530852</v>
+        <v>1.609221424012006</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.512891703592933</v>
+        <v>1.511833131970357</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.510764054217974</v>
+        <v>1.166033930616327</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.419131235687713</v>
+        <v>1.50868286479676</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.650715033580016</v>
+        <v>1.574476512847383</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.536898352167458</v>
+        <v>1.628940030519072</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.571858043269419</v>
+        <v>1.457649995365691</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.677169507214392</v>
+        <v>1.412409275805408</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.537835009461449</v>
+        <v>1.513085683884367</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.673879809686535</v>
+        <v>1.589873148155662</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.443803456970807</v>
+        <v>1.301244891842795</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.6063563569324</v>
+        <v>1.277650493996879</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.475547172958789</v>
+        <v>1.235705073630671</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.624207264538598</v>
+        <v>1.546598792505762</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.310686971992584</v>
+        <v>1.528156561970917</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.337049961708775</v>
+        <v>1.576443080688639</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.732615203315228</v>
+        <v>1.621666061062077</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.63288574185419</v>
+        <v>1.569427112200474</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.339270344637194</v>
+        <v>1.70431101412013</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.850135330575077</v>
+        <v>1.565215748481014</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.614843926434187</v>
+        <v>1.632792208090942</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.625633567188336</v>
+        <v>1.451407642566471</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.678134493921998</v>
+        <v>1.72274601653542</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.504994274404617</v>
+        <v>1.509291141670445</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.073046510466637</v>
+        <v>1.351666918169437</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.668990985890842</v>
+        <v>1.619610293457839</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.64318776458136</v>
+        <v>1.481094139333752</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.795135893395502</v>
+        <v>1.346567369229435</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.595136128197812</v>
+        <v>1.658127153765125</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.386156225905224</v>
+        <v>1.615944726561834</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.555821133088983</v>
+        <v>1.553523789038435</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.572952870419245</v>
+        <v>1.377524007420265</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.439820838488208</v>
+        <v>1.33409187009181</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.438082068783001</v>
+        <v>1.262929595392337</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.305946933812212</v>
+        <v>1.565173470896188</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.464438754933795</v>
+        <v>1.4851199717141</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.497185377974534</v>
+        <v>1.214400276004735</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.638430073556972</v>
+        <v>1.530212048628786</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.407283103440833</v>
+        <v>1.345461343198185</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.630102561239575</v>
+        <v>1.356226226436865</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.350201510685012</v>
+        <v>1.618623778974108</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.455449120373531</v>
+        <v>1.604902475624032</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.346544979354028</v>
+        <v>1.256198807433832</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.594746089110585</v>
+        <v>1.95950611384718</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.526249714013058</v>
+        <v>1.79364890958436</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.551238204546628</v>
+        <v>1.299558006708458</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.412263400305279</v>
+        <v>1.799895144278185</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.571880760397892</v>
+        <v>1.518972617999737</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.583458008436723</v>
+        <v>1.671180087469861</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.303191046427452</v>
+        <v>1.362052850635274</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.491774446522705</v>
+        <v>1.649367802198839</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.501362252302217</v>
+        <v>1.422706057334739</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.32830346918088</v>
+        <v>1.234242820186129</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.480950643858102</v>
+        <v>1.64108089585263</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.689577268194556</v>
+        <v>1.695411796092815</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.210874400364558</v>
+        <v>1.576023650964197</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.447100735461941</v>
+        <v>1.594665092199336</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.702407169923617</v>
+        <v>1.530049361988493</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1.327433981388619</v>
+        <v>1.809418839670844</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.814716647370605</v>
+        <v>1.37665911909483</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.323615596412275</v>
+        <v>1.571287718352587</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.365945475858988</v>
+        <v>1.580209973413995</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.533555933905637</v>
+        <v>1.248082506760066</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.40259214078459</v>
+        <v>1.682821694711464</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.402060915739327</v>
+        <v>1.696464238936434</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.455510978583684</v>
+        <v>1.605964877407926</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.350336530164155</v>
+        <v>1.267785291746308</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.377011840802005</v>
+        <v>1.743911116420357</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.411533701351698</v>
+        <v>1.458905075608463</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.209232148064377</v>
+        <v>1.432848403371238</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.554788591864285</v>
+        <v>1.48160119936573</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.351152063122337</v>
+        <v>1.628204888248643</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.745307184924674</v>
+        <v>1.586195957636362</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.697556986230204</v>
+        <v>1.450198359191396</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.37015163133933</v>
+        <v>1.322883248546781</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>1.508994911273531</v>
+        <v>1.679003811819272</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.628338283229739</v>
+        <v>1.723769955594145</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.414030235686387</v>
+        <v>1.315256499291843</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.549033692292164</v>
+        <v>1.440697131855961</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.430942540691313</v>
+        <v>1.597260112425997</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.672426370053892</v>
+        <v>1.301994904968754</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.384688321930065</v>
+        <v>1.517778281943252</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.290379945166399</v>
+        <v>1.393737970440032</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.488219468974101</v>
+        <v>1.444134896618627</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.463115476281858</v>
+        <v>1.345323961604852</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.793833014276148</v>
+        <v>1.592823859539487</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.39941432033696</v>
+        <v>1.409964297712975</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.476326507647179</v>
+        <v>1.561225355575371</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.437928695165455</v>
+        <v>1.506457003079926</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.314689403057145</v>
+        <v>1.407976461548693</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.467142807032215</v>
+        <v>1.523283858274037</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.524066698286586</v>
+        <v>1.389853954192353</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.51289355768246</v>
+        <v>1.458172888633357</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.605251774024004</v>
+        <v>1.318908761642748</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.611668943816756</v>
+        <v>1.231030083746707</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.628770242625492</v>
+        <v>1.732161599310749</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.536739985288023</v>
+        <v>1.507345279756665</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.618119259051566</v>
+        <v>1.201639322852522</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.543465168769859</v>
+        <v>1.321799021890521</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.46090468428494</v>
+        <v>1.470744323027896</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.448677834414389</v>
+        <v>1.618041368861767</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.621872955482113</v>
+        <v>1.427584988060109</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.685602850444109</v>
+        <v>1.520250924685592</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.527797276722127</v>
+        <v>1.469726601655702</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.750585412718724</v>
+        <v>1.750729627312099</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.691264361661736</v>
+        <v>1.625503811617936</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.403536895876693</v>
+        <v>1.618379619961898</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.479975855461735</v>
+        <v>1.424888391934664</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.509806035690394</v>
+        <v>1.92129686867115</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.500239131525661</v>
+        <v>1.579592905280313</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.585475703693581</v>
+        <v>1.469261647425157</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.578976320718397</v>
+        <v>1.360023668362869</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.611564935108879</v>
+        <v>1.449568173913228</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.402256303685794</v>
+        <v>1.411267173120594</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.651130728663998</v>
+        <v>1.287843198917178</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.59420158404429</v>
+        <v>1.464563748871945</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.338343585355853</v>
+        <v>1.504962528112829</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.527486494644337</v>
+        <v>1.48596367480562</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.497440455424992</v>
+        <v>1.484800114942212</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.442254586550773</v>
+        <v>1.627775068653926</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.519717436725713</v>
+        <v>1.554016482850169</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.435003858429089</v>
+        <v>1.65678405655405</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.693654478162202</v>
+        <v>1.397741602444796</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.638089308970578</v>
+        <v>1.333677783161572</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.467176865598423</v>
+        <v>1.408251216574159</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.404248660007324</v>
+        <v>1.390016586450779</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.353504453341414</v>
+        <v>1.648340434501443</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.676428867877936</v>
+        <v>1.364284346551288</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.408644635089992</v>
+        <v>1.406686228148695</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.357944416306565</v>
+        <v>1.408361457244723</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.300704182445592</v>
+        <v>1.460510964412575</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.539424880851377</v>
+        <v>1.6174227918041</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.546575858627713</v>
+        <v>1.306459274945112</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.575788085322179</v>
+        <v>1.207662306962337</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.772299673527576</v>
+        <v>1.268113725510654</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.542856742717069</v>
+        <v>1.796525181167684</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.555314241529529</v>
+        <v>1.45023164087951</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>1.53143498756873</v>
+        <v>1.691946508691568</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.565363849704686</v>
+        <v>1.397723351699621</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.49824837437867</v>
+        <v>1.610567544971941</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.649938122361506</v>
+        <v>1.532438187929161</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.520514186371717</v>
+        <v>1.395154491293999</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.398741228195941</v>
+        <v>1.457079637928203</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.644915421257389</v>
+        <v>1.296876765359013</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.252965357033903</v>
+        <v>1.444571312841518</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.386413337646779</v>
+        <v>1.720764107248293</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.571305333253844</v>
+        <v>1.772479180673064</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.708623150299044</v>
+        <v>1.475214492835732</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.464342327266775</v>
+        <v>1.611702577711175</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.35695022681806</v>
+        <v>1.267170564067207</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.65481427735476</v>
+        <v>1.657577436472343</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.503907156525133</v>
+        <v>1.756719588006424</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.687484630314069</v>
+        <v>1.537330135464764</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.717038837900077</v>
+        <v>1.458478336276962</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.580564196792222</v>
+        <v>1.27492450114069</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="F181">
-        <v>1.783669330406831</v>
+        <v>1.474082059634171</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.585987516314462</v>
+        <v>1.474168670332815</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.489734400157257</v>
+        <v>1.573741780251381</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.490190002185359</v>
+        <v>1.568691151878779</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.463224410982165</v>
+        <v>1.482066560792911</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.492738115798519</v>
+        <v>1.391783934738638</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.722071087564059</v>
+        <v>1.791743290477599</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.617432203517223</v>
+        <v>1.460544077122228</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.626433990839008</v>
+        <v>1.595112350888544</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.477671613596375</v>
+        <v>1.629580897303827</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.588104462730557</v>
+        <v>1.473727613961609</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.531733723892394</v>
+        <v>1.467385015627786</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.34398084304072</v>
+        <v>1.622516854069222</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.725355539546964</v>
+        <v>1.535299173206379</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.361000881287516</v>
+        <v>1.876470780235141</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.31904693370312</v>
+        <v>1.675246128739688</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.481960361403169</v>
+        <v>1.433287294626516</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.842003211495618</v>
+        <v>1.728785982913158</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.339924601662813</v>
+        <v>1.59771561468783</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.617744936734954</v>
+        <v>1.396685908018175</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.543856132680091</v>
+        <v>1.473805513590562</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.660619252225098</v>
+        <v>1.633850282572118</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="F203">
-        <v>1.220043292440416</v>
+        <v>1.632918924152947</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.280029078276826</v>
+        <v>1.624973859690888</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.579229695051542</v>
+        <v>1.436733044885532</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.25045382606178</v>
+        <v>1.283821817101859</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.546276602915382</v>
+        <v>1.673212427646239</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.301678394461862</v>
+        <v>1.400081503746086</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.309106855014962</v>
+        <v>1.554496931773334</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.446082456344326</v>
+        <v>1.569167238482936</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.649405088840227</v>
+        <v>1.698265558733042</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.298497450667707</v>
+        <v>1.489250769134922</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.53651372503008</v>
+        <v>1.439552267130703</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <v>1.45235094376778</v>
+        <v>1.471793010006414</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.493602693866851</v>
+        <v>1.569585436659879</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.62774218307003</v>
+        <v>1.427840417896083</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.611657411411499</v>
+        <v>1.435785965102321</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.449405240136351</v>
+        <v>1.634175595174852</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.770227529565248</v>
+        <v>1.681049088994897</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.636295688889779</v>
+        <v>1.345370258363493</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.514604649412405</v>
+        <v>1.503688743425051</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.449528414332601</v>
+        <v>1.702453962907163</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.698672860284414</v>
+        <v>1.333404932935963</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.675422212257387</v>
+        <v>1.637968629984993</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.452963099195568</v>
+        <v>1.378743504794114</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.693837432516097</v>
+        <v>1.25976406033891</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.329041692047783</v>
+        <v>1.605424652924486</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.246833209013983</v>
+        <v>1.585834355127879</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.43927501341723</v>
+        <v>1.322942831781674</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.533388947261045</v>
+        <v>1.208321358841187</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.323397478303125</v>
+        <v>1.55088870039154</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.314938075603377</v>
+        <v>1.451390284396868</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.743872646103703</v>
+        <v>1.041014276060025</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.64969779407081</v>
+        <v>1.513604738733496</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.684934995129083</v>
+        <v>1.487591201127719</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.588200792481942</v>
+        <v>1.481967474330742</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.426136756437172</v>
+        <v>1.681243836197919</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.354419507591262</v>
+        <v>1.539845909642484</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.32402962617572</v>
+        <v>1.532295619523955</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.424320772618306</v>
+        <v>1.318619800276264</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.584016239378472</v>
+        <v>1.499224639741495</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.585135556179339</v>
+        <v>1.492513841815317</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.374480024566002</v>
+        <v>1.433869258604675</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.608961405924308</v>
+        <v>1.699638807601175</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.650231042345553</v>
+        <v>1.441241113791842</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.258754450990764</v>
+        <v>1.043379995042488</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.406512879092567</v>
+        <v>1.426652985434033</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.497574984441673</v>
+        <v>1.417071827017456</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.534285660178075</v>
+        <v>1.719801230432632</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.630388349089311</v>
+        <v>1.808462881666708</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.62109222029853</v>
+        <v>1.598783356467691</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.466955997314036</v>
+        <v>1.437650898717463</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.73031532277973</v>
+        <v>1.348786385576016</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.425977597031126</v>
+        <v>1.350373044201003</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.506172289730231</v>
+        <v>1.599722809499712</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.43402457859638</v>
+        <v>1.313836506494009</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.446703769752265</v>
+        <v>1.475226126458355</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/27_localizer.xlsx
+++ b/sequences/27_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
     <t>flower/flower041.jpg</t>
   </si>
   <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
   </si>
   <si>
     <t>house/house046.jpg</t>
   </si>
   <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
     <t>face/face040.jpg</t>
   </si>
   <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
     <t>dog/dog046.jpg</t>
   </si>
   <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
     <t>face/face032.jpg</t>
   </si>
   <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
     <t>dog/dog040.jpg</t>
   </si>
   <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
     <t>flower/flower044.jpg</t>
   </si>
   <si>
-    <t>house/house035.jpg</t>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
   </si>
   <si>
     <t>face/face060.jpg</t>
   </si>
   <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
   </si>
   <si>
     <t>flower/flower054.jpg</t>
   </si>
   <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
     <t>face/face055.jpg</t>
   </si>
   <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
     <t>face/face062.jpg</t>
   </si>
   <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
   </si>
   <si>
     <t>face/face075.jpg</t>
   </si>
   <si>
-    <t>face/face067.jpg</t>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
   </si>
   <si>
     <t>house/house079.jpg</t>
   </si>
   <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
   </si>
   <si>
     <t>house/house065.jpg</t>
   </si>
   <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
     <t>dog/dog069.jpg</t>
   </si>
   <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
   </si>
   <si>
     <t>flower/flower095.jpg</t>
   </si>
   <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
   </si>
   <si>
     <t>house/house095.jpg</t>
   </si>
   <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
     <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.226429883476751</v>
+        <v>1.683834630204189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.224363540988063</v>
+        <v>1.588259342028783</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.683410337003965</v>
+        <v>1.70126885578114</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.333361174158133</v>
+        <v>1.480617742378389</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.732688185971383</v>
+        <v>1.671102132377191</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.516306981381986</v>
+        <v>1.70537783035951</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.583132389372231</v>
+        <v>1.755487934402263</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.522512755234016</v>
+        <v>1.549947087433763</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.565614261494317</v>
+        <v>1.681603185242837</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.426958979260164</v>
+        <v>1.250801291215747</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.323891307701768</v>
+        <v>1.522730900232874</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.617309497132933</v>
+        <v>1.367739796591077</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.706215784111508</v>
+        <v>1.667782415931689</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.480107924079321</v>
+        <v>1.592769808983066</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.508788813493397</v>
+        <v>1.5532495564869</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.56656283783855</v>
+        <v>1.520410744168885</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.561239987184818</v>
+        <v>1.219142423036704</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.337738549991945</v>
+        <v>1.493682065728682</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.397725363280013</v>
+        <v>1.221500687794808</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.59407315439145</v>
+        <v>1.745629083067057</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.386072276775993</v>
+        <v>1.5632183971619</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1.736207689660407</v>
+        <v>1.495152936738903</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.367543925754982</v>
+        <v>1.536816171723007</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.586842740722568</v>
+        <v>1.493475231240547</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.609221424012006</v>
+        <v>1.652542085439177</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.511833131970357</v>
+        <v>1.582862558254375</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.166033930616327</v>
+        <v>1.397087315137331</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.50868286479676</v>
+        <v>1.45825125004546</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.574476512847383</v>
+        <v>1.61565260438265</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.628940030519072</v>
+        <v>1.512317488766435</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.457649995365691</v>
+        <v>1.454517171355573</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.412409275805408</v>
+        <v>1.334126176499981</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.513085683884367</v>
+        <v>1.544667073498778</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.589873148155662</v>
+        <v>1.5888069223402</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.301244891842795</v>
+        <v>1.653944710487386</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.277650493996879</v>
+        <v>1.261354272803724</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.235705073630671</v>
+        <v>1.32072126003704</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.546598792505762</v>
+        <v>1.718498081145675</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.528156561970917</v>
+        <v>1.545073152205071</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.576443080688639</v>
+        <v>1.40511002748839</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.621666061062077</v>
+        <v>1.254151995399235</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.569427112200474</v>
+        <v>1.267700469939262</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.70431101412013</v>
+        <v>1.523823213192288</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.565215748481014</v>
+        <v>1.426203418698586</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.632792208090942</v>
+        <v>1.597680145619456</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.451407642566471</v>
+        <v>1.647659219521739</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.72274601653542</v>
+        <v>1.53214830301482</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.509291141670445</v>
+        <v>1.585040939976669</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.351666918169437</v>
+        <v>1.664318045760481</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.619610293457839</v>
+        <v>1.29036005712561</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.481094139333752</v>
+        <v>1.437889293921</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.346567369229435</v>
+        <v>1.427218043314455</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.658127153765125</v>
+        <v>1.574175055013199</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.615944726561834</v>
+        <v>1.228570984756272</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.553523789038435</v>
+        <v>1.443416691908201</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.377524007420265</v>
+        <v>1.54127961255009</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.33409187009181</v>
+        <v>1.556123635471431</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.262929595392337</v>
+        <v>1.685398248716029</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.565173470896188</v>
+        <v>1.595445537016032</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.4851199717141</v>
+        <v>1.605204309452191</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.214400276004735</v>
+        <v>1.234193960802767</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.530212048628786</v>
+        <v>1.099290187207529</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.345461343198185</v>
+        <v>1.463504568425791</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.356226226436865</v>
+        <v>1.3796863107893</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.618623778974108</v>
+        <v>1.31249338117874</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.604902475624032</v>
+        <v>1.196689748465842</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.256198807433832</v>
+        <v>1.365176892416919</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.95950611384718</v>
+        <v>1.59333346638229</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.79364890958436</v>
+        <v>1.682536047562173</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1.299558006708458</v>
+        <v>1.515809214952326</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.799895144278185</v>
+        <v>1.562970551801556</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.518972617999737</v>
+        <v>1.354383119659491</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.671180087469861</v>
+        <v>1.385828332552067</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.362052850635274</v>
+        <v>1.768758880743849</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.649367802198839</v>
+        <v>1.69291087256638</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.422706057334739</v>
+        <v>1.547340961824963</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.234242820186129</v>
+        <v>1.428343549115395</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.64108089585263</v>
+        <v>1.458799672637654</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.695411796092815</v>
+        <v>1.401373961394105</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.576023650964197</v>
+        <v>1.535833834240881</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.594665092199336</v>
+        <v>1.420462731651702</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.530049361988493</v>
+        <v>1.486102125289434</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.809418839670844</v>
+        <v>1.488935199389691</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.37665911909483</v>
+        <v>1.764062455887653</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.571287718352587</v>
+        <v>1.78267057927163</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.580209973413995</v>
+        <v>1.304028812206634</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.248082506760066</v>
+        <v>1.31873691216612</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.682821694711464</v>
+        <v>1.445328869708232</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.696464238936434</v>
+        <v>1.290002831616762</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.605964877407926</v>
+        <v>1.476568759022425</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.267785291746308</v>
+        <v>1.450257455198013</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.743911116420357</v>
+        <v>1.326485301081391</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.458905075608463</v>
+        <v>1.55630089792713</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.432848403371238</v>
+        <v>1.721199369776533</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.48160119936573</v>
+        <v>1.583356337058419</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.628204888248643</v>
+        <v>1.335200125099435</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.586195957636362</v>
+        <v>1.582777249237396</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.450198359191396</v>
+        <v>1.646271626701189</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.322883248546781</v>
+        <v>1.532202499896842</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>1.679003811819272</v>
+        <v>1.45649798163673</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.723769955594145</v>
+        <v>1.593020155974515</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.315256499291843</v>
+        <v>1.644440158178861</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.440697131855961</v>
+        <v>1.617932411521207</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.597260112425997</v>
+        <v>1.467208701085984</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.301994904968754</v>
+        <v>1.491764984823618</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.517778281943252</v>
+        <v>1.529017656305823</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.393737970440032</v>
+        <v>1.505441379675571</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.444134896618627</v>
+        <v>1.354364642165198</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.345323961604852</v>
+        <v>1.319730985165257</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1.592823859539487</v>
+        <v>1.527949435243554</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.409964297712975</v>
+        <v>1.576375190449505</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.561225355575371</v>
+        <v>1.579167060731693</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.506457003079926</v>
+        <v>1.540985274804096</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.407976461548693</v>
+        <v>1.252324228145119</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.523283858274037</v>
+        <v>1.506268849882289</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.389853954192353</v>
+        <v>1.445650139917757</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.458172888633357</v>
+        <v>1.558367566516843</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.318908761642748</v>
+        <v>1.408856077008741</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.231030083746707</v>
+        <v>1.477937752083672</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.732161599310749</v>
+        <v>1.523829737302323</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.507345279756665</v>
+        <v>1.670675765723035</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.201639322852522</v>
+        <v>1.336324383291106</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.321799021890521</v>
+        <v>1.721548639644678</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.470744323027896</v>
+        <v>1.376539650854048</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.618041368861767</v>
+        <v>1.49176287813328</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.427584988060109</v>
+        <v>1.493926759348109</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.520250924685592</v>
+        <v>1.490779425142119</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.469726601655702</v>
+        <v>1.54944428616945</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.750729627312099</v>
+        <v>1.685544732815558</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.625503811617936</v>
+        <v>1.522072732341706</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.618379619961898</v>
+        <v>1.589355091955808</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.424888391934664</v>
+        <v>1.401372160427746</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.92129686867115</v>
+        <v>1.656339866975401</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.579592905280313</v>
+        <v>1.370971664680362</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.469261647425157</v>
+        <v>1.261823222188827</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.360023668362869</v>
+        <v>1.662600290654566</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.449568173913228</v>
+        <v>1.385764899931462</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.411267173120594</v>
+        <v>1.588426417364271</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.287843198917178</v>
+        <v>1.334760546654492</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.464563748871945</v>
+        <v>1.579014749609181</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.504962528112829</v>
+        <v>1.361327867566601</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.48596367480562</v>
+        <v>1.575279963873211</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.484800114942212</v>
+        <v>1.495204511775778</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.627775068653926</v>
+        <v>1.474641542302958</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.554016482850169</v>
+        <v>1.508197245806888</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.65678405655405</v>
+        <v>1.619799787387749</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.397741602444796</v>
+        <v>1.430971726505379</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.333677783161572</v>
+        <v>1.473817066406556</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.408251216574159</v>
+        <v>1.499992541998258</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.390016586450779</v>
+        <v>1.296695510129031</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.648340434501443</v>
+        <v>1.462198123522086</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.364284346551288</v>
+        <v>1.538135550835791</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.406686228148695</v>
+        <v>1.749794989153139</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.408361457244723</v>
+        <v>1.641036036864025</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.460510964412575</v>
+        <v>1.523000978010197</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.6174227918041</v>
+        <v>1.516511924747046</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.306459274945112</v>
+        <v>1.565397594785991</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.207662306962337</v>
+        <v>1.546503727302676</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.268113725510654</v>
+        <v>1.602251423098231</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.796525181167684</v>
+        <v>1.372060232212489</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.45023164087951</v>
+        <v>1.451143711561376</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.691946508691568</v>
+        <v>1.485459134344095</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.397723351699621</v>
+        <v>1.411352049385052</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.610567544971941</v>
+        <v>1.286518730775582</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.532438187929161</v>
+        <v>1.422093765589714</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.395154491293999</v>
+        <v>1.585863182742373</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.457079637928203</v>
+        <v>1.645492185589654</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.296876765359013</v>
+        <v>1.532102376700379</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.444571312841518</v>
+        <v>1.499090614615373</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.720764107248293</v>
+        <v>1.40680577131464</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.772479180673064</v>
+        <v>1.511260321863864</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.475214492835732</v>
+        <v>1.355451504478731</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.611702577711175</v>
+        <v>1.561487623719395</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.267170564067207</v>
+        <v>1.618378882087282</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.657577436472343</v>
+        <v>1.79043203923045</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.756719588006424</v>
+        <v>1.217948677141575</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.537330135464764</v>
+        <v>1.458068999668341</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.458478336276962</v>
+        <v>1.486613131622436</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.27492450114069</v>
+        <v>1.209914913083847</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.474082059634171</v>
+        <v>1.753494932605061</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.474168670332815</v>
+        <v>1.419824380184502</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.573741780251381</v>
+        <v>1.357468855148616</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.568691151878779</v>
+        <v>1.602567689379883</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.482066560792911</v>
+        <v>1.472993996612783</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.391783934738638</v>
+        <v>1.379783290642755</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.791743290477599</v>
+        <v>1.479183581087659</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.460544077122228</v>
+        <v>1.580614048054114</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.595112350888544</v>
+        <v>1.486869677147357</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.629580897303827</v>
+        <v>1.320037266608974</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.473727613961609</v>
+        <v>1.35366749732487</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.467385015627786</v>
+        <v>1.708507931409379</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.622516854069222</v>
+        <v>1.35333060164534</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.535299173206379</v>
+        <v>1.624112302094709</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.876470780235141</v>
+        <v>1.84414794422014</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.675246128739688</v>
+        <v>1.369018390928995</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.433287294626516</v>
+        <v>1.483049404879496</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.728785982913158</v>
+        <v>1.699923083481453</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.59771561468783</v>
+        <v>1.376736934192411</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.396685908018175</v>
+        <v>1.2893742995705</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.473805513590562</v>
+        <v>1.4362054718379</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="F202">
-        <v>1.633850282572118</v>
+        <v>1.379155297690774</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.632918924152947</v>
+        <v>1.513907375556733</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.624973859690888</v>
+        <v>1.188105298692062</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.436733044885532</v>
+        <v>1.444895312800221</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.283821817101859</v>
+        <v>1.570812747978598</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.673212427646239</v>
+        <v>1.511465916301891</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.400081503746086</v>
+        <v>1.572492637716105</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.554496931773334</v>
+        <v>1.696009397953924</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.569167238482936</v>
+        <v>1.671371216562554</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.698265558733042</v>
+        <v>1.371737170365303</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.489250769134922</v>
+        <v>1.473157575068231</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.439552267130703</v>
+        <v>1.466848383225264</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.471793010006414</v>
+        <v>1.38183527108823</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.569585436659879</v>
+        <v>1.515000285941086</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.427840417896083</v>
+        <v>1.459098855289907</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.435785965102321</v>
+        <v>1.546089213246754</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.634175595174852</v>
+        <v>1.382108853304266</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.681049088994897</v>
+        <v>1.243890489163016</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.345370258363493</v>
+        <v>1.614682735684331</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.503688743425051</v>
+        <v>1.399521254251489</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.702453962907163</v>
+        <v>1.596076687850744</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.333404932935963</v>
+        <v>1.307526205809512</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.637968629984993</v>
+        <v>1.31352933287462</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.378743504794114</v>
+        <v>1.614952897959275</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.25976406033891</v>
+        <v>1.487621725097567</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.605424652924486</v>
+        <v>1.776606446223582</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.585834355127879</v>
+        <v>1.708191082896851</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.322942831781674</v>
+        <v>1.570502234565721</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.208321358841187</v>
+        <v>1.497494078142769</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.55088870039154</v>
+        <v>1.851626506150034</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.451390284396868</v>
+        <v>1.516414092766107</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.041014276060025</v>
+        <v>1.59717405601966</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.513604738733496</v>
+        <v>1.339130263920685</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.487591201127719</v>
+        <v>1.295346361581147</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.481967474330742</v>
+        <v>1.408378072664508</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.681243836197919</v>
+        <v>1.383290009112413</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.539845909642484</v>
+        <v>1.710025132693902</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.532295619523955</v>
+        <v>1.501176546767812</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.318619800276264</v>
+        <v>1.262025057795292</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.499224639741495</v>
+        <v>1.539241769465773</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.492513841815317</v>
+        <v>1.567372621949316</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.433869258604675</v>
+        <v>1.435113879364553</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.699638807601175</v>
+        <v>1.773043590561314</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.441241113791842</v>
+        <v>1.555700718798372</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.043379995042488</v>
+        <v>1.670428969093882</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.426652985434033</v>
+        <v>1.431545229023492</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.417071827017456</v>
+        <v>1.640103198117276</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.719801230432632</v>
+        <v>1.548751930316184</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.808462881666708</v>
+        <v>1.728126545056816</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.598783356467691</v>
+        <v>1.383609810540818</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.437650898717463</v>
+        <v>1.69174708928004</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.348786385576016</v>
+        <v>1.288171560991804</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.350373044201003</v>
+        <v>1.744821875389818</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.599722809499712</v>
+        <v>1.510763216966653</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.313836506494009</v>
+        <v>1.647251220711261</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.475226126458355</v>
+        <v>1.604032416866386</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/27_localizer.xlsx
+++ b/sequences/27_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
     <t>dog/dog039.jpg</t>
   </si>
   <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
   </si>
   <si>
     <t>face/face037.jpg</t>
   </si>
   <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
   </si>
   <si>
     <t>dog/dog044.jpg</t>
   </si>
   <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
   </si>
   <si>
     <t>face/face049.jpg</t>
   </si>
   <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
   </si>
   <si>
     <t>face/face059.jpg</t>
   </si>
   <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
+    <t>flower/flower060.jpg</t>
   </si>
   <si>
     <t>house/house056.jpg</t>
   </si>
   <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
     <t>house/house049.jpg</t>
   </si>
   <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
     <t>face/face050.jpg</t>
   </si>
   <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
     <t>dog/dog056.jpg</t>
   </si>
   <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
     <t>flower/flower057.jpg</t>
   </si>
   <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
   </si>
   <si>
     <t>face/face074.jpg</t>
   </si>
   <si>
-    <t>flower/flower081.jpg</t>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
   </si>
   <si>
     <t>house/house067.jpg</t>
   </si>
   <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
     <t>dog/dog077.jpg</t>
   </si>
   <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
   </si>
   <si>
     <t>face/face081.jpg</t>
   </si>
   <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
     <t>face/face088.jpg</t>
   </si>
   <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
     <t>face/face093.jpg</t>
   </si>
   <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
   </si>
   <si>
     <t>dog/dog087.jpg</t>
   </si>
   <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
     <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.683834630204189</v>
+        <v>1.616520128526664</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.588259342028783</v>
+        <v>1.450266703784974</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.70126885578114</v>
+        <v>1.58456885936993</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.480617742378389</v>
+        <v>1.428753207084224</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.671102132377191</v>
+        <v>1.713137503732981</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.70537783035951</v>
+        <v>1.829406412309216</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.755487934402263</v>
+        <v>1.175576176853287</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.549947087433763</v>
+        <v>1.479836951267586</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.681603185242837</v>
+        <v>1.413772556511903</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.250801291215747</v>
+        <v>1.415643919317887</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.522730900232874</v>
+        <v>1.422648239725086</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.367739796591077</v>
+        <v>1.563474672185428</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.667782415931689</v>
+        <v>1.495361798382095</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.592769808983066</v>
+        <v>1.531053637615091</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.5532495564869</v>
+        <v>1.456762662344979</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.520410744168885</v>
+        <v>1.520551765265746</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.219142423036704</v>
+        <v>1.321001493273623</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.493682065728682</v>
+        <v>1.634074156021748</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.221500687794808</v>
+        <v>1.380434877167269</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.745629083067057</v>
+        <v>1.327152230701602</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.5632183971619</v>
+        <v>1.720544896045278</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.495152936738903</v>
+        <v>1.645455128963382</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.536816171723007</v>
+        <v>1.430214737349012</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.493475231240547</v>
+        <v>1.614285538646457</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.652542085439177</v>
+        <v>1.553931694741625</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.582862558254375</v>
+        <v>1.606791988643095</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.397087315137331</v>
+        <v>1.620741455408956</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.45825125004546</v>
+        <v>1.873432140571013</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.61565260438265</v>
+        <v>1.638866861095643</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.512317488766435</v>
+        <v>1.786304616274459</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.454517171355573</v>
+        <v>1.402211348254002</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.334126176499981</v>
+        <v>1.970883844936973</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.544667073498778</v>
+        <v>1.61170541136979</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.5888069223402</v>
+        <v>1.693769782257299</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.653944710487386</v>
+        <v>1.483153619112073</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.261354272803724</v>
+        <v>1.300583251989528</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.32072126003704</v>
+        <v>1.473633119136652</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.718498081145675</v>
+        <v>1.802671127252658</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.545073152205071</v>
+        <v>1.42604361728303</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.40511002748839</v>
+        <v>1.585669942138882</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.254151995399235</v>
+        <v>1.423892878010003</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.267700469939262</v>
+        <v>1.578092442130246</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.523823213192288</v>
+        <v>1.687541441281683</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.426203418698586</v>
+        <v>1.443483925137704</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.597680145619456</v>
+        <v>1.46677555203054</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.647659219521739</v>
+        <v>1.470618354012878</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.53214830301482</v>
+        <v>1.635049129722974</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.585040939976669</v>
+        <v>1.336828951029198</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.664318045760481</v>
+        <v>1.748456383225965</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.29036005712561</v>
+        <v>1.516419044868502</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.437889293921</v>
+        <v>1.572395049325963</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.427218043314455</v>
+        <v>1.745480419634012</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.574175055013199</v>
+        <v>1.66918783781249</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.228570984756272</v>
+        <v>1.325842463836506</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.443416691908201</v>
+        <v>1.430957449093805</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.54127961255009</v>
+        <v>1.560604904109009</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.556123635471431</v>
+        <v>1.360870770447816</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.685398248716029</v>
+        <v>1.38838090993243</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.595445537016032</v>
+        <v>1.471450263787944</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.605204309452191</v>
+        <v>1.398328325331927</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.234193960802767</v>
+        <v>1.516046786813375</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.099290187207529</v>
+        <v>1.519088601162817</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.463504568425791</v>
+        <v>1.57329515412065</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.3796863107893</v>
+        <v>1.419910773115051</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.31249338117874</v>
+        <v>1.550115627025255</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.196689748465842</v>
+        <v>1.528053690254231</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.365176892416919</v>
+        <v>1.522871627704566</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.59333346638229</v>
+        <v>1.696120585853232</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.682536047562173</v>
+        <v>1.423000587946672</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.515809214952326</v>
+        <v>1.28010825683523</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.562970551801556</v>
+        <v>1.369764941520491</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.354383119659491</v>
+        <v>1.51112936380449</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.385828332552067</v>
+        <v>1.716637659200656</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.768758880743849</v>
+        <v>1.597670302166674</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.69291087256638</v>
+        <v>1.45879324685694</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.547340961824963</v>
+        <v>1.274827698097392</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.428343549115395</v>
+        <v>1.544641257689161</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.458799672637654</v>
+        <v>1.599207955661075</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.401373961394105</v>
+        <v>1.491168313349111</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.535833834240881</v>
+        <v>1.621239472733205</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.420462731651702</v>
+        <v>1.404795646566614</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.486102125289434</v>
+        <v>1.574591516101473</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.488935199389691</v>
+        <v>1.212548190746045</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.764062455887653</v>
+        <v>1.510593757111527</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.78267057927163</v>
+        <v>1.382469365401732</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.304028812206634</v>
+        <v>1.611485350112594</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.31873691216612</v>
+        <v>1.719843982225306</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.445328869708232</v>
+        <v>1.645734775938875</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.290002831616762</v>
+        <v>1.370789851136643</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.476568759022425</v>
+        <v>1.465781432049463</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.450257455198013</v>
+        <v>1.507411236518799</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.326485301081391</v>
+        <v>1.299116339595656</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.55630089792713</v>
+        <v>1.337400223332263</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.721199369776533</v>
+        <v>1.351303109267306</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.583356337058419</v>
+        <v>1.58808159081983</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.335200125099435</v>
+        <v>1.287063133345833</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.582777249237396</v>
+        <v>1.465763327220193</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.646271626701189</v>
+        <v>1.508253565332353</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.532202499896842</v>
+        <v>1.56174031532596</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>1.45649798163673</v>
+        <v>1.378087494847831</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.593020155974515</v>
+        <v>1.387790073185615</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.644440158178861</v>
+        <v>1.628233737465462</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.617932411521207</v>
+        <v>1.580639494680905</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.467208701085984</v>
+        <v>1.594612980236072</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.491764984823618</v>
+        <v>1.653687545144799</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.529017656305823</v>
+        <v>1.548896248647218</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.505441379675571</v>
+        <v>1.507384717695894</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.354364642165198</v>
+        <v>1.667956379727742</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.319730985165257</v>
+        <v>1.50060944137673</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.527949435243554</v>
+        <v>1.557025513110955</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.576375190449505</v>
+        <v>1.462413303532138</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.579167060731693</v>
+        <v>1.589811168266747</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.540985274804096</v>
+        <v>1.425443607837999</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.252324228145119</v>
+        <v>1.455468292250989</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.506268849882289</v>
+        <v>1.477938481877869</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.445650139917757</v>
+        <v>1.489750565588665</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.558367566516843</v>
+        <v>1.633368781419865</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.408856077008741</v>
+        <v>1.699492440605331</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.477937752083672</v>
+        <v>1.626228812881137</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.523829737302323</v>
+        <v>1.779560893929629</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.670675765723035</v>
+        <v>1.348182238891726</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.336324383291106</v>
+        <v>1.833451313665772</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.721548639644678</v>
+        <v>1.596743789615072</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.376539650854048</v>
+        <v>1.439738821203236</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.49176287813328</v>
+        <v>1.715032543708217</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.493926759348109</v>
+        <v>1.604392364753229</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.490779425142119</v>
+        <v>1.63498611108544</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.54944428616945</v>
+        <v>1.523476110348818</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.685544732815558</v>
+        <v>1.454464414546328</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.522072732341706</v>
+        <v>1.375157148492715</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.589355091955808</v>
+        <v>1.699452917479495</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.401372160427746</v>
+        <v>1.882575466318837</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.656339866975401</v>
+        <v>1.712661977825928</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.370971664680362</v>
+        <v>1.633718602606247</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.261823222188827</v>
+        <v>1.493274071530819</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.662600290654566</v>
+        <v>1.676458674609928</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.385764899931462</v>
+        <v>1.45768292912141</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.588426417364271</v>
+        <v>1.357295131066777</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.334760546654492</v>
+        <v>1.523076502927826</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.579014749609181</v>
+        <v>1.380250353430065</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.361327867566601</v>
+        <v>1.391696460104106</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.575279963873211</v>
+        <v>1.52525147305482</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.495204511775778</v>
+        <v>1.327619462300569</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.474641542302958</v>
+        <v>1.739048226017786</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.508197245806888</v>
+        <v>1.552942520077762</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.619799787387749</v>
+        <v>1.681445928462014</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.430971726505379</v>
+        <v>1.323716010439045</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.473817066406556</v>
+        <v>1.760541002482976</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.499992541998258</v>
+        <v>1.542404603713466</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.296695510129031</v>
+        <v>1.369009319991171</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.462198123522086</v>
+        <v>1.52570155414282</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.538135550835791</v>
+        <v>1.609620138918136</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.749794989153139</v>
+        <v>1.744868897296678</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.641036036864025</v>
+        <v>1.680959235540552</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.523000978010197</v>
+        <v>1.792716306951375</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.516511924747046</v>
+        <v>1.656818195019176</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.565397594785991</v>
+        <v>1.404144659812823</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.546503727302676</v>
+        <v>1.448142844231377</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.602251423098231</v>
+        <v>1.600555886987221</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.372060232212489</v>
+        <v>1.549667376309686</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.451143711561376</v>
+        <v>1.722111751297156</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.485459134344095</v>
+        <v>1.468145011131046</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.411352049385052</v>
+        <v>1.598428920540491</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.286518730775582</v>
+        <v>1.601497709632477</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.422093765589714</v>
+        <v>1.672273722896017</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <v>1.585863182742373</v>
+        <v>1.440446430763521</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.645492185589654</v>
+        <v>1.3147016388521</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.532102376700379</v>
+        <v>1.159859296741013</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.499090614615373</v>
+        <v>1.200041379340478</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.40680577131464</v>
+        <v>1.470404860156856</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.511260321863864</v>
+        <v>1.531953223218778</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.355451504478731</v>
+        <v>1.572563588483528</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.561487623719395</v>
+        <v>1.336426312407339</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.618378882087282</v>
+        <v>1.453734303949563</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.79043203923045</v>
+        <v>1.512775915650425</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.217948677141575</v>
+        <v>1.502206451277719</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.458068999668341</v>
+        <v>1.441511190419023</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.486613131622436</v>
+        <v>1.37090797577475</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.209914913083847</v>
+        <v>1.520866746677364</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.753494932605061</v>
+        <v>1.278969618259175</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.419824380184502</v>
+        <v>1.567660935025786</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.357468855148616</v>
+        <v>1.248682684325985</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.602567689379883</v>
+        <v>1.393980254246884</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.472993996612783</v>
+        <v>1.322990920652038</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.379783290642755</v>
+        <v>1.637338315821971</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.479183581087659</v>
+        <v>1.333377247559682</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.580614048054114</v>
+        <v>1.453445608605027</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.486869677147357</v>
+        <v>1.502136531400211</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.320037266608974</v>
+        <v>1.341250379744336</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.35366749732487</v>
+        <v>1.445801716643845</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.708507931409379</v>
+        <v>1.777152996637119</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.35333060164534</v>
+        <v>1.687950758635223</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.624112302094709</v>
+        <v>1.302318725074312</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.84414794422014</v>
+        <v>1.356829411368635</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.369018390928995</v>
+        <v>1.521988860315094</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.483049404879496</v>
+        <v>1.221525318325632</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.699923083481453</v>
+        <v>1.537228938679528</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.376736934192411</v>
+        <v>1.548669570817301</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.2893742995705</v>
+        <v>1.653409587339382</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.4362054718379</v>
+        <v>1.202644893698547</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.379155297690774</v>
+        <v>1.519466122433941</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.513907375556733</v>
+        <v>1.607436604665008</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.188105298692062</v>
+        <v>1.513435089565363</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.444895312800221</v>
+        <v>1.606537448556566</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.570812747978598</v>
+        <v>1.500802720721195</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.511465916301891</v>
+        <v>1.392089717219727</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.572492637716105</v>
+        <v>1.476659863776409</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.696009397953924</v>
+        <v>1.751448017943346</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.671371216562554</v>
+        <v>1.727440156022869</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>1.371737170365303</v>
+        <v>1.144802255209912</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.473157575068231</v>
+        <v>1.543776521155833</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.466848383225264</v>
+        <v>1.538617823397122</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.38183527108823</v>
+        <v>1.530625039767793</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.515000285941086</v>
+        <v>1.417793807611066</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.459098855289907</v>
+        <v>1.493408925563137</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.546089213246754</v>
+        <v>1.596522274967437</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.382108853304266</v>
+        <v>1.561883089804997</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.243890489163016</v>
+        <v>1.392127443986408</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.614682735684331</v>
+        <v>1.656142491234335</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.399521254251489</v>
+        <v>1.555157446568905</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.596076687850744</v>
+        <v>1.842879095863184</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.307526205809512</v>
+        <v>1.750639329693099</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.31352933287462</v>
+        <v>1.694311004678579</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>1.614952897959275</v>
+        <v>1.595547234739251</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.487621725097567</v>
+        <v>1.601233370896896</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.776606446223582</v>
+        <v>1.355657778833221</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.708191082896851</v>
+        <v>1.556567862867446</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.570502234565721</v>
+        <v>1.424098782245687</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.497494078142769</v>
+        <v>1.396667925995642</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.851626506150034</v>
+        <v>1.279866406527679</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.516414092766107</v>
+        <v>1.72561589347033</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.59717405601966</v>
+        <v>1.307714092441328</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.339130263920685</v>
+        <v>1.745504354639526</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.295346361581147</v>
+        <v>1.615160560492287</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.408378072664508</v>
+        <v>1.509182643367955</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.383290009112413</v>
+        <v>1.420037718118513</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.710025132693902</v>
+        <v>1.465861468677895</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.501176546767812</v>
+        <v>1.406320084451331</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.262025057795292</v>
+        <v>1.407746365177478</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.539241769465773</v>
+        <v>1.425993474412807</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.567372621949316</v>
+        <v>1.42738770698284</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.435113879364553</v>
+        <v>1.425313575517796</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.773043590561314</v>
+        <v>1.282742492927232</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.555700718798372</v>
+        <v>1.18961296378947</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.670428969093882</v>
+        <v>1.499501325491732</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.431545229023492</v>
+        <v>1.547619340931927</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.640103198117276</v>
+        <v>1.403374528808738</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.548751930316184</v>
+        <v>1.388464384121405</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
-        <v>1.728126545056816</v>
+        <v>1.482119118335816</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.383609810540818</v>
+        <v>1.573095996908875</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.69174708928004</v>
+        <v>1.647944948350155</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.288171560991804</v>
+        <v>1.143566074852208</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.744821875389818</v>
+        <v>1.571713043971057</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.510763216966653</v>
+        <v>1.246457742940117</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.647251220711261</v>
+        <v>1.41702384746813</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.604032416866386</v>
+        <v>1.431072837167176</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/27_localizer.xlsx
+++ b/sequences/27_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
   </si>
   <si>
     <t>flower/flower048.jpg</t>
   </si>
   <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
     <t>house/house044.jpg</t>
   </si>
   <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
     <t>dog/dog037.jpg</t>
   </si>
   <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
   </si>
   <si>
     <t>dog/dog038.jpg</t>
   </si>
   <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
   </si>
   <si>
     <t>dog/dog033.jpg</t>
   </si>
   <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
     <t>house/house039.jpg</t>
   </si>
   <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
   </si>
   <si>
     <t>dog/dog058.jpg</t>
   </si>
   <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
   </si>
   <si>
     <t>dog/dog051.jpg</t>
   </si>
   <si>
-    <t>dog/dog059.jpg</t>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
   </si>
   <si>
     <t>flower/flower058.jpg</t>
   </si>
   <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
+    <t>house/house052.jpg</t>
   </si>
   <si>
     <t>face/face056.jpg</t>
   </si>
   <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
   </si>
   <si>
     <t>face/face062.jpg</t>
   </si>
   <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
   </si>
   <si>
     <t>face/face072.jpg</t>
   </si>
   <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
   </si>
   <si>
     <t>dog/dog076.jpg</t>
   </si>
   <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
     <t>house/house066.jpg</t>
   </si>
   <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
     <t>flower/flower067.jpg</t>
   </si>
   <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
   </si>
   <si>
     <t>face/face080.jpg</t>
   </si>
   <si>
-    <t>face/face083.jpg</t>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
   </si>
   <si>
     <t>dog/dog086.jpg</t>
   </si>
   <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
   </si>
   <si>
     <t>face/face085.jpg</t>
   </si>
   <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
   </si>
   <si>
     <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.616520128526664</v>
+        <v>1.640732345019017</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.450266703784974</v>
+        <v>1.797174345737256</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.58456885936993</v>
+        <v>1.470137313630296</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.428753207084224</v>
+        <v>1.571246475716493</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.713137503732981</v>
+        <v>1.889926364096211</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.829406412309216</v>
+        <v>1.545048538351573</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.175576176853287</v>
+        <v>1.188013748891038</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.479836951267586</v>
+        <v>1.696976625001244</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.413772556511903</v>
+        <v>1.46310052672965</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.415643919317887</v>
+        <v>1.571599429694117</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.422648239725086</v>
+        <v>1.652125180672893</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.563474672185428</v>
+        <v>1.464756423524081</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.495361798382095</v>
+        <v>1.246688593487258</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.531053637615091</v>
+        <v>1.402990898430418</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.456762662344979</v>
+        <v>1.208239741757093</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.520551765265746</v>
+        <v>1.187257890640824</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.321001493273623</v>
+        <v>1.561643162408624</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.634074156021748</v>
+        <v>1.63229006914988</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.380434877167269</v>
+        <v>1.615865557552459</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.327152230701602</v>
+        <v>1.305356349947207</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.720544896045278</v>
+        <v>1.69934751628215</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.645455128963382</v>
+        <v>1.017496221636693</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.430214737349012</v>
+        <v>1.659063973460146</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.614285538646457</v>
+        <v>1.476016773321687</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.553931694741625</v>
+        <v>1.648436761686731</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.606791988643095</v>
+        <v>1.51578948242996</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.620741455408956</v>
+        <v>1.582913120332065</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.873432140571013</v>
+        <v>1.237259780379946</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.638866861095643</v>
+        <v>1.430024430469171</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.786304616274459</v>
+        <v>1.51056260556143</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.402211348254002</v>
+        <v>1.472514744180337</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.970883844936973</v>
+        <v>1.29338820552314</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.61170541136979</v>
+        <v>1.281148827487471</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.693769782257299</v>
+        <v>1.714881964212949</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.483153619112073</v>
+        <v>1.44093794068641</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.300583251989528</v>
+        <v>1.65332429144962</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.473633119136652</v>
+        <v>1.515121788296702</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.802671127252658</v>
+        <v>1.584779508477786</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.42604361728303</v>
+        <v>1.450525308866603</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.585669942138882</v>
+        <v>1.296759188102421</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.423892878010003</v>
+        <v>1.825081644084603</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.578092442130246</v>
+        <v>1.809427267487915</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.687541441281683</v>
+        <v>1.535932943113425</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.443483925137704</v>
+        <v>1.759801801079772</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.46677555203054</v>
+        <v>1.481661827101558</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.470618354012878</v>
+        <v>1.368262087777424</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.635049129722974</v>
+        <v>1.3205801205986</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.336828951029198</v>
+        <v>1.45923749670651</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.748456383225965</v>
+        <v>1.501576647759949</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.516419044868502</v>
+        <v>1.433194551816972</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.572395049325963</v>
+        <v>1.710129986879407</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.745480419634012</v>
+        <v>1.68208386099854</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.66918783781249</v>
+        <v>1.359488037693127</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.325842463836506</v>
+        <v>1.136738670012422</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.430957449093805</v>
+        <v>1.762435806953909</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1.560604904109009</v>
+        <v>1.540292386269827</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1.360870770447816</v>
+        <v>1.298016788256993</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.38838090993243</v>
+        <v>1.578010737613645</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.471450263787944</v>
+        <v>1.608163707139183</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.398328325331927</v>
+        <v>1.428172940915517</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.516046786813375</v>
+        <v>1.369369754331308</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.519088601162817</v>
+        <v>1.385817532744996</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.57329515412065</v>
+        <v>1.34679648123309</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.419910773115051</v>
+        <v>1.615379415992332</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.550115627025255</v>
+        <v>1.599259281741266</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.528053690254231</v>
+        <v>1.713465118154086</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.522871627704566</v>
+        <v>1.124520878717845</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.696120585853232</v>
+        <v>1.688618828319431</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.423000587946672</v>
+        <v>1.38656319116309</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.28010825683523</v>
+        <v>1.70313531600351</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.369764941520491</v>
+        <v>1.513741320598764</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.51112936380449</v>
+        <v>1.247269766242793</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.716637659200656</v>
+        <v>1.59507071185309</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.597670302166674</v>
+        <v>1.445718887088258</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.45879324685694</v>
+        <v>1.565918130668416</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.274827698097392</v>
+        <v>1.681172017233322</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.544641257689161</v>
+        <v>1.663070955901762</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.599207955661075</v>
+        <v>1.418829158760626</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.491168313349111</v>
+        <v>1.683898478992505</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.621239472733205</v>
+        <v>1.21609002184816</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.404795646566614</v>
+        <v>1.725414598013562</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.574591516101473</v>
+        <v>1.683044019206246</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.212548190746045</v>
+        <v>1.494275731715063</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.510593757111527</v>
+        <v>1.607546365875279</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.382469365401732</v>
+        <v>1.46663895172977</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.611485350112594</v>
+        <v>1.55407253045743</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.719843982225306</v>
+        <v>1.119031856859904</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.645734775938875</v>
+        <v>1.555514010275382</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.370789851136643</v>
+        <v>1.295445795405888</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.465781432049463</v>
+        <v>1.579363751644083</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.507411236518799</v>
+        <v>1.809074430836987</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.299116339595656</v>
+        <v>1.879877398348256</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.337400223332263</v>
+        <v>1.617108221199346</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.351303109267306</v>
+        <v>1.394323432717728</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.58808159081983</v>
+        <v>1.500054326538282</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.287063133345833</v>
+        <v>1.297464874415743</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.465763327220193</v>
+        <v>1.551953594417147</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.508253565332353</v>
+        <v>1.450222547431562</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.56174031532596</v>
+        <v>1.606921829436271</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.378087494847831</v>
+        <v>1.620060392852895</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.387790073185615</v>
+        <v>1.258743761553747</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.628233737465462</v>
+        <v>1.4394605254997</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.580639494680905</v>
+        <v>1.661680950099071</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.594612980236072</v>
+        <v>1.317519954787648</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.653687545144799</v>
+        <v>1.575818407606127</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.548896248647218</v>
+        <v>1.305441696175835</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.507384717695894</v>
+        <v>1.711907703659055</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.667956379727742</v>
+        <v>1.379436234256988</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.50060944137673</v>
+        <v>1.434696310997695</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.557025513110955</v>
+        <v>1.405186966144363</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.462413303532138</v>
+        <v>1.29898711622164</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.589811168266747</v>
+        <v>1.483531519089883</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.425443607837999</v>
+        <v>1.498901979328974</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.455468292250989</v>
+        <v>1.521733126424561</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.477938481877869</v>
+        <v>1.256790676036217</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.489750565588665</v>
+        <v>1.390828068723819</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.633368781419865</v>
+        <v>1.275979472991863</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.699492440605331</v>
+        <v>1.762488718183353</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.626228812881137</v>
+        <v>1.780495190976174</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.779560893929629</v>
+        <v>1.392239572320146</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.348182238891726</v>
+        <v>1.505347611266386</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.833451313665772</v>
+        <v>1.520056589970792</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.596743789615072</v>
+        <v>1.523376570443215</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>1.439738821203236</v>
+        <v>1.605556795003165</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.715032543708217</v>
+        <v>1.520794068807496</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>1.604392364753229</v>
+        <v>1.393249836370571</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.63498611108544</v>
+        <v>1.52398049883552</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.523476110348818</v>
+        <v>1.630838966740231</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.454464414546328</v>
+        <v>1.677996158184007</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.375157148492715</v>
+        <v>1.342140286443448</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.699452917479495</v>
+        <v>1.228078025935203</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.882575466318837</v>
+        <v>1.558011481132898</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.712661977825928</v>
+        <v>1.557797488050362</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.633718602606247</v>
+        <v>1.290659225566347</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.493274071530819</v>
+        <v>1.590709624580417</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.676458674609928</v>
+        <v>1.59904495299075</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.45768292912141</v>
+        <v>1.390174211973065</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.357295131066777</v>
+        <v>1.483713414737276</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.523076502927826</v>
+        <v>1.437205910845959</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.380250353430065</v>
+        <v>1.657144869884473</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.391696460104106</v>
+        <v>1.37148913544477</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.52525147305482</v>
+        <v>1.492309432454977</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.327619462300569</v>
+        <v>1.471258555008943</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.739048226017786</v>
+        <v>1.393616839548615</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.552942520077762</v>
+        <v>1.403089992321245</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.681445928462014</v>
+        <v>1.395622125626557</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.323716010439045</v>
+        <v>1.552855107866184</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.760541002482976</v>
+        <v>1.464402763246983</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.542404603713466</v>
+        <v>1.465852721554423</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.369009319991171</v>
+        <v>1.58707307271594</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.52570155414282</v>
+        <v>1.508188260781575</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.609620138918136</v>
+        <v>1.432726931745665</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.744868897296678</v>
+        <v>1.268661425317515</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.680959235540552</v>
+        <v>1.465062902433682</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.792716306951375</v>
+        <v>1.747964610651844</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.656818195019176</v>
+        <v>1.818715305177494</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.404144659812823</v>
+        <v>1.70422399527645</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.448142844231377</v>
+        <v>1.540958990287119</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.600555886987221</v>
+        <v>1.557986143721326</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.549667376309686</v>
+        <v>1.593652790978648</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.722111751297156</v>
+        <v>1.477033563226845</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.468145011131046</v>
+        <v>1.324758182212571</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.598428920540491</v>
+        <v>1.301335889831847</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.601497709632477</v>
+        <v>1.301764667087202</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.672273722896017</v>
+        <v>1.588443718023211</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <v>1.440446430763521</v>
+        <v>1.614954718250189</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.3147016388521</v>
+        <v>1.636297924499809</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.159859296741013</v>
+        <v>1.628738530511585</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.200041379340478</v>
+        <v>1.834344201130436</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.470404860156856</v>
+        <v>1.93991447417678</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.531953223218778</v>
+        <v>1.381600678039058</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.572563588483528</v>
+        <v>1.374139896864172</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.336426312407339</v>
+        <v>1.390470886290696</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.453734303949563</v>
+        <v>1.465992270570298</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.512775915650425</v>
+        <v>1.18082796167021</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.502206451277719</v>
+        <v>1.466371834917925</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.441511190419023</v>
+        <v>1.460517410276616</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.37090797577475</v>
+        <v>1.300667592143392</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.520866746677364</v>
+        <v>1.283034668310642</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.278969618259175</v>
+        <v>1.323479436594273</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.567660935025786</v>
+        <v>1.336489814532031</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.248682684325985</v>
+        <v>1.388939048561089</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.393980254246884</v>
+        <v>1.546686216032861</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.322990920652038</v>
+        <v>1.621835729482223</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.637338315821971</v>
+        <v>1.669372973101873</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.333377247559682</v>
+        <v>1.4555554356325</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.453445608605027</v>
+        <v>1.479153190272874</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.502136531400211</v>
+        <v>1.449105346029731</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.341250379744336</v>
+        <v>1.412715392138395</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.445801716643845</v>
+        <v>1.220110407933369</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.777152996637119</v>
+        <v>1.525420918534742</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.687950758635223</v>
+        <v>1.452632525070437</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.302318725074312</v>
+        <v>1.229724628657742</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.356829411368635</v>
+        <v>1.191762454863913</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.521988860315094</v>
+        <v>1.32758359868098</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.221525318325632</v>
+        <v>1.153414137123911</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.537228938679528</v>
+        <v>1.423703941056791</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.548669570817301</v>
+        <v>1.525833280486062</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.653409587339382</v>
+        <v>1.555942348115591</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.202644893698547</v>
+        <v>1.643295640447844</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.519466122433941</v>
+        <v>1.542555895926764</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.607436604665008</v>
+        <v>1.66429967006376</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.513435089565363</v>
+        <v>1.653766740940739</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.606537448556566</v>
+        <v>1.460972678450771</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.500802720721195</v>
+        <v>1.477595325220965</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.392089717219727</v>
+        <v>1.517727877584032</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.476659863776409</v>
+        <v>1.348902450992226</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.751448017943346</v>
+        <v>1.599623460981856</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.727440156022869</v>
+        <v>1.552855384430986</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.144802255209912</v>
+        <v>1.354491224116735</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.543776521155833</v>
+        <v>1.664621050142181</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.538617823397122</v>
+        <v>1.400710308028358</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.530625039767793</v>
+        <v>1.330454084636324</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.417793807611066</v>
+        <v>1.788928320959578</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.493408925563137</v>
+        <v>1.753632307670986</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.596522274967437</v>
+        <v>1.711263090133508</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.561883089804997</v>
+        <v>1.659226861360162</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.392127443986408</v>
+        <v>1.552861147191603</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.656142491234335</v>
+        <v>1.745144104959398</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.555157446568905</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.842879095863184</v>
+        <v>1.693207063170789</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.750639329693099</v>
+        <v>1.185823417466286</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.694311004678579</v>
+        <v>1.21146498600747</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>1.595547234739251</v>
+        <v>1.677867509357476</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.601233370896896</v>
+        <v>1.407379254094652</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.355657778833221</v>
+        <v>1.435498799113657</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.556567862867446</v>
+        <v>1.567710272473018</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.424098782245687</v>
+        <v>1.500295916051566</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.396667925995642</v>
+        <v>1.482824646672488</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.279866406527679</v>
+        <v>1.8357616610063</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.72561589347033</v>
+        <v>1.968902361844338</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.307714092441328</v>
+        <v>1.438690966497637</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.745504354639526</v>
+        <v>1.509080313545901</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.615160560492287</v>
+        <v>1.380472784558299</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.509182643367955</v>
+        <v>1.765249959709429</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.420037718118513</v>
+        <v>1.348617875561779</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.465861468677895</v>
+        <v>1.168906720263956</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.406320084451331</v>
+        <v>1.640514702013697</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.407746365177478</v>
+        <v>1.291931515866465</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.425993474412807</v>
+        <v>1.406916168857185</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.42738770698284</v>
+        <v>1.085480747680155</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.425313575517796</v>
+        <v>1.571360064163785</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.282742492927232</v>
+        <v>1.522289747254268</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.18961296378947</v>
+        <v>1.375474628676182</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.499501325491732</v>
+        <v>1.639198158515793</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>1.547619340931927</v>
+        <v>1.280440081745415</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.403374528808738</v>
+        <v>1.721564522700411</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.388464384121405</v>
+        <v>1.597328125039644</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.482119118335816</v>
+        <v>1.322581064947643</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.573095996908875</v>
+        <v>1.326039402740442</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.647944948350155</v>
+        <v>1.392908781846702</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.143566074852208</v>
+        <v>1.480922382667879</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.571713043971057</v>
+        <v>1.628470358324817</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.246457742940117</v>
+        <v>1.720166079862779</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.41702384746813</v>
+        <v>1.403234641178419</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.431072837167176</v>
+        <v>1.86691563720611</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/27_localizer.xlsx
+++ b/sequences/27_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
     <t>face/face038.jpg</t>
   </si>
   <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
     <t>house/house042.jpg</t>
   </si>
   <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
     <t>dog/dog032.jpg</t>
   </si>
   <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
   </si>
   <si>
     <t>house/house043.jpg</t>
   </si>
   <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
+    <t>dog/dog044.jpg</t>
   </si>
   <si>
     <t>face/face045.jpg</t>
   </si>
   <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
   </si>
   <si>
     <t>dog/dog048.jpg</t>
   </si>
   <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
   </si>
   <si>
     <t>face/face060.jpg</t>
   </si>
   <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
   </si>
   <si>
     <t>dog/dog056.jpg</t>
   </si>
   <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
   </si>
   <si>
     <t>flower/flower071.jpg</t>
   </si>
   <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
+    <t>face/face064.jpg</t>
   </si>
   <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
+    <t>face/face078.jpg</t>
   </si>
   <si>
     <t>flower/flower078.jpg</t>
   </si>
   <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
   </si>
   <si>
     <t>house/house083.jpg</t>
   </si>
   <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
     <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.640732345019017</v>
+        <v>1.515851578009302</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.797174345737256</v>
+        <v>1.604049458173953</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.470137313630296</v>
+        <v>1.511972134323007</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.571246475716493</v>
+        <v>1.444585848618611</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.889926364096211</v>
+        <v>1.58213190506601</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.545048538351573</v>
+        <v>1.678156943283228</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.188013748891038</v>
+        <v>1.432006090317862</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.696976625001244</v>
+        <v>1.532826300391648</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.46310052672965</v>
+        <v>1.419922518683863</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.571599429694117</v>
+        <v>1.494656043125547</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.652125180672893</v>
+        <v>1.378403713736538</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.464756423524081</v>
+        <v>1.685288519638667</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.246688593487258</v>
+        <v>1.605327920788447</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.402990898430418</v>
+        <v>1.484757842096282</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.208239741757093</v>
+        <v>1.377022210790604</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.187257890640824</v>
+        <v>1.407940791480826</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.561643162408624</v>
+        <v>1.494329988413448</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.63229006914988</v>
+        <v>1.335933743652573</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.615865557552459</v>
+        <v>1.513797239788449</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.305356349947207</v>
+        <v>1.458406388802264</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.69934751628215</v>
+        <v>1.578040222324257</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.017496221636693</v>
+        <v>1.397525967047674</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.659063973460146</v>
+        <v>1.491187396085113</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.476016773321687</v>
+        <v>1.658567404450457</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.648436761686731</v>
+        <v>1.787806376019296</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.51578948242996</v>
+        <v>1.378939741500885</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.582913120332065</v>
+        <v>1.379214505946164</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.237259780379946</v>
+        <v>1.458674645790602</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.430024430469171</v>
+        <v>1.468953456557355</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.51056260556143</v>
+        <v>1.407720467480235</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.472514744180337</v>
+        <v>1.550634607529422</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.29338820552314</v>
+        <v>1.482961275469837</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.281148827487471</v>
+        <v>1.427166787200147</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.714881964212949</v>
+        <v>1.34311759158733</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.44093794068641</v>
+        <v>1.641185071006528</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.65332429144962</v>
+        <v>1.585434147513099</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.515121788296702</v>
+        <v>1.600634160120565</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.584779508477786</v>
+        <v>1.332361457192511</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.450525308866603</v>
+        <v>1.701187491100607</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.296759188102421</v>
+        <v>1.404101274082818</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.825081644084603</v>
+        <v>1.557256553078203</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.809427267487915</v>
+        <v>1.453454806923544</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.535932943113425</v>
+        <v>1.771120609199587</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.759801801079772</v>
+        <v>1.460150367174069</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.481661827101558</v>
+        <v>1.354457022279896</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.368262087777424</v>
+        <v>1.559747200777033</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.3205801205986</v>
+        <v>1.707703144233731</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.45923749670651</v>
+        <v>1.473722024619337</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.501576647759949</v>
+        <v>1.33716913397102</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.433194551816972</v>
+        <v>1.34877964369183</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.710129986879407</v>
+        <v>1.667885271286152</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.68208386099854</v>
+        <v>1.847710796871794</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.359488037693127</v>
+        <v>1.590627784549502</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.136738670012422</v>
+        <v>1.859113440834924</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.762435806953909</v>
+        <v>1.660306143358031</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.540292386269827</v>
+        <v>1.502973795355173</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.298016788256993</v>
+        <v>1.674383042666675</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.578010737613645</v>
+        <v>1.594606557741279</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.608163707139183</v>
+        <v>1.464073397313911</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.428172940915517</v>
+        <v>1.761121331007995</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.369369754331308</v>
+        <v>1.622743144872552</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.385817532744996</v>
+        <v>1.732315853244859</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.34679648123309</v>
+        <v>1.117983229586762</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.615379415992332</v>
+        <v>1.534605732109271</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.599259281741266</v>
+        <v>1.624911490560066</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.713465118154086</v>
+        <v>1.623464537747644</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.124520878717845</v>
+        <v>1.664390126097023</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.688618828319431</v>
+        <v>1.558026440993257</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.38656319116309</v>
+        <v>1.377967922544097</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.70313531600351</v>
+        <v>1.531988766178738</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.513741320598764</v>
+        <v>1.460635446492937</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.247269766242793</v>
+        <v>1.513193856067907</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.59507071185309</v>
+        <v>1.643750292743021</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.445718887088258</v>
+        <v>1.415112762131844</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.565918130668416</v>
+        <v>1.438807398459981</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.681172017233322</v>
+        <v>1.742160466882269</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.663070955901762</v>
+        <v>1.487986730379254</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.418829158760626</v>
+        <v>1.526599709827049</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.683898478992505</v>
+        <v>1.234679381093261</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.21609002184816</v>
+        <v>1.764464177950724</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.725414598013562</v>
+        <v>1.539678267159012</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.683044019206246</v>
+        <v>1.331811112553867</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.494275731715063</v>
+        <v>1.313474824459019</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.607546365875279</v>
+        <v>1.417384098524655</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.46663895172977</v>
+        <v>1.516475515102493</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.55407253045743</v>
+        <v>1.351469385257584</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.119031856859904</v>
+        <v>1.336243340793145</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.555514010275382</v>
+        <v>1.46796671173975</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.295445795405888</v>
+        <v>1.614460092779656</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.579363751644083</v>
+        <v>1.315029695782449</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.809074430836987</v>
+        <v>1.340867810542395</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.879877398348256</v>
+        <v>1.498319724599413</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.617108221199346</v>
+        <v>1.568985171014805</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.394323432717728</v>
+        <v>1.223161971047728</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.500054326538282</v>
+        <v>1.234984546451839</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.297464874415743</v>
+        <v>1.371472560847464</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.551953594417147</v>
+        <v>1.323779835546119</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.450222547431562</v>
+        <v>1.340457992564362</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.606921829436271</v>
+        <v>1.38395307377193</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.620060392852895</v>
+        <v>1.618258414287276</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.258743761553747</v>
+        <v>1.430343719062795</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.4394605254997</v>
+        <v>1.532485103533709</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.661680950099071</v>
+        <v>1.571302688596648</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.317519954787648</v>
+        <v>1.752702786098113</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.575818407606127</v>
+        <v>1.571239627078846</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.305441696175835</v>
+        <v>1.544062935946166</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.711907703659055</v>
+        <v>1.216927776112165</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.379436234256988</v>
+        <v>1.488584613522946</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.434696310997695</v>
+        <v>1.174330760504879</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.405186966144363</v>
+        <v>1.621283596441889</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>1.29898711622164</v>
+        <v>1.299345955657502</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.483531519089883</v>
+        <v>1.186437102753712</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.498901979328974</v>
+        <v>1.482434573170076</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.521733126424561</v>
+        <v>1.591800024204042</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.256790676036217</v>
+        <v>1.781805504231389</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.390828068723819</v>
+        <v>1.47756068917106</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.275979472991863</v>
+        <v>1.498532979962687</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.762488718183353</v>
+        <v>1.553119421526353</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.780495190976174</v>
+        <v>1.389299313108655</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.392239572320146</v>
+        <v>1.465635651294563</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.505347611266386</v>
+        <v>1.730109371677744</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.520056589970792</v>
+        <v>1.306269709234545</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.523376570443215</v>
+        <v>1.362166108218703</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.605556795003165</v>
+        <v>1.571970851858303</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.520794068807496</v>
+        <v>1.461205377848966</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.393249836370571</v>
+        <v>1.198221864826643</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.52398049883552</v>
+        <v>1.609484012701668</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.630838966740231</v>
+        <v>1.487388989364083</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.677996158184007</v>
+        <v>1.258939344197163</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.342140286443448</v>
+        <v>1.435345557327963</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.228078025935203</v>
+        <v>1.174946612321971</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.558011481132898</v>
+        <v>1.407156614384109</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.557797488050362</v>
+        <v>1.575399480053407</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.290659225566347</v>
+        <v>1.250671993177438</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.590709624580417</v>
+        <v>1.459582452643627</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.59904495299075</v>
+        <v>1.558272103077354</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.390174211973065</v>
+        <v>1.486661894468766</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.483713414737276</v>
+        <v>1.545094516103028</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.437205910845959</v>
+        <v>1.568146956568707</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.657144869884473</v>
+        <v>1.386064172089933</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.37148913544477</v>
+        <v>1.721520418238089</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.492309432454977</v>
+        <v>1.448929889376399</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.471258555008943</v>
+        <v>1.552404452472706</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.393616839548615</v>
+        <v>1.678541644346751</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.403089992321245</v>
+        <v>1.723302690389198</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <v>1.395622125626557</v>
+        <v>1.304224899642909</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.552855107866184</v>
+        <v>1.371053443747936</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.464402763246983</v>
+        <v>1.502451404036711</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.465852721554423</v>
+        <v>1.590656203907588</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.58707307271594</v>
+        <v>1.707262834278063</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.508188260781575</v>
+        <v>1.304547867280184</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.432726931745665</v>
+        <v>1.541833555267399</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.268661425317515</v>
+        <v>1.598902458762557</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.465062902433682</v>
+        <v>1.607312316675602</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.747964610651844</v>
+        <v>1.483379465843994</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.818715305177494</v>
+        <v>1.290680469140613</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.70422399527645</v>
+        <v>1.461246667715573</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.540958990287119</v>
+        <v>1.708140603260536</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.557986143721326</v>
+        <v>1.308747698411384</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.593652790978648</v>
+        <v>1.583883822279945</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.477033563226845</v>
+        <v>1.593994746916042</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.324758182212571</v>
+        <v>1.734009182350678</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.301335889831847</v>
+        <v>1.318974737135832</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.301764667087202</v>
+        <v>1.398398505830812</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.588443718023211</v>
+        <v>1.577236187428194</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.614954718250189</v>
+        <v>1.507437096002826</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.636297924499809</v>
+        <v>1.396055121284471</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.628738530511585</v>
+        <v>1.724963107626198</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.834344201130436</v>
+        <v>1.353395133020722</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.93991447417678</v>
+        <v>1.581027432319776</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.381600678039058</v>
+        <v>1.484593270423061</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.374139896864172</v>
+        <v>1.557131229868464</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.390470886290696</v>
+        <v>1.578372514946669</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.465992270570298</v>
+        <v>1.429263104709427</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.18082796167021</v>
+        <v>1.447596504376697</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.466371834917925</v>
+        <v>1.689264212690932</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.460517410276616</v>
+        <v>1.302046289437629</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.300667592143392</v>
+        <v>1.585334767700234</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.283034668310642</v>
+        <v>1.419173373680978</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.323479436594273</v>
+        <v>1.352582799921044</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.336489814532031</v>
+        <v>1.38188875835308</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.388939048561089</v>
+        <v>1.545641962039012</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.546686216032861</v>
+        <v>1.446717575610516</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.621835729482223</v>
+        <v>1.629066573158368</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>1.669372973101873</v>
+        <v>1.454521092214171</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.4555554356325</v>
+        <v>1.414153516522511</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.479153190272874</v>
+        <v>1.300098854366713</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.449105346029731</v>
+        <v>1.581958888175582</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.412715392138395</v>
+        <v>1.61145308208953</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.220110407933369</v>
+        <v>1.555564251880212</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.525420918534742</v>
+        <v>1.909274548567284</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.452632525070437</v>
+        <v>1.42722714080195</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.229724628657742</v>
+        <v>1.50535106686571</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.191762454863913</v>
+        <v>1.729839010685016</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.32758359868098</v>
+        <v>1.362647134454976</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.153414137123911</v>
+        <v>1.961608509454447</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.423703941056791</v>
+        <v>1.63477887794158</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.525833280486062</v>
+        <v>1.274658245935513</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.555942348115591</v>
+        <v>1.402921792953188</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.643295640447844</v>
+        <v>1.589716951973731</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.542555895926764</v>
+        <v>1.088105338938935</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.66429967006376</v>
+        <v>1.400813465723529</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.653766740940739</v>
+        <v>1.529439618023626</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.460972678450771</v>
+        <v>1.467532638078363</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.477595325220965</v>
+        <v>1.487743191554838</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.517727877584032</v>
+        <v>1.328558315070404</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.348902450992226</v>
+        <v>1.406871642268171</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.599623460981856</v>
+        <v>1.584370064606066</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.552855384430986</v>
+        <v>1.627618283495447</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.354491224116735</v>
+        <v>1.602278439189073</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.664621050142181</v>
+        <v>1.517768432701765</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.400710308028358</v>
+        <v>1.626922964622798</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.330454084636324</v>
+        <v>1.761224698293058</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.788928320959578</v>
+        <v>1.407229198314866</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.753632307670986</v>
+        <v>1.503080909381246</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.711263090133508</v>
+        <v>1.688337509521488</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.659226861360162</v>
+        <v>1.681262832934821</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.552861147191603</v>
+        <v>1.675924456409067</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.745144104959398</v>
+        <v>1.858715472796183</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>2</v>
+        <v>1.710058574667726</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.693207063170789</v>
+        <v>1.42949825559981</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.185823417466286</v>
+        <v>1.264587114918475</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.21146498600747</v>
+        <v>1.614859865594986</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.677867509357476</v>
+        <v>1.394999134885399</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.407379254094652</v>
+        <v>1.255760478843018</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.435498799113657</v>
+        <v>1.205355792394142</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.567710272473018</v>
+        <v>1.599833419115595</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.500295916051566</v>
+        <v>1.668471756971305</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.482824646672488</v>
+        <v>1.599546485623991</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.8357616610063</v>
+        <v>1.331475913684261</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.968902361844338</v>
+        <v>1.427452888279773</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.438690966497637</v>
+        <v>1.554269141081339</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.509080313545901</v>
+        <v>1.255443846148465</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.380472784558299</v>
+        <v>1.633598809161263</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.765249959709429</v>
+        <v>1.519931000403164</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.348617875561779</v>
+        <v>1.473211379876306</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.168906720263956</v>
+        <v>1.44653721886446</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.640514702013697</v>
+        <v>1.532281982719158</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.291931515866465</v>
+        <v>1.430072285907259</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.406916168857185</v>
+        <v>1.143785298598269</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.085480747680155</v>
+        <v>1.538982985515103</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.571360064163785</v>
+        <v>1.780252198028524</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.522289747254268</v>
+        <v>1.457279474365627</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.375474628676182</v>
+        <v>1.68710333964905</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.639198158515793</v>
+        <v>1.526090439872842</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.280440081745415</v>
+        <v>1.468246816429757</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.721564522700411</v>
+        <v>1.399777642983271</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.597328125039644</v>
+        <v>1.58085670420662</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.322581064947643</v>
+        <v>1.531294436780064</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.326039402740442</v>
+        <v>1.597639070666893</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.392908781846702</v>
+        <v>1.596465826116647</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.480922382667879</v>
+        <v>1.427061902792659</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.628470358324817</v>
+        <v>1.396376783229438</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.720166079862779</v>
+        <v>1.546100761490686</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.403234641178419</v>
+        <v>1.482847498873849</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.86691563720611</v>
+        <v>1.531912069518556</v>
       </c>
     </row>
   </sheetData>
